--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C172DD7B-A626-4B01-B1D1-5672B6415A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B30F4-F81F-49EC-87D6-9B685C645470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="1217">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3685,6 +3685,9 @@
   </si>
   <si>
     <t>26/01/2025 al 01/02/2025</t>
+  </si>
+  <si>
+    <t>02/02/2025 al 08/02/2025</t>
   </si>
 </sst>
 </file>
@@ -3930,13 +3933,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4259,11 +4262,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1211"/>
+  <dimension ref="A1:P1212"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1210" sqref="D1210"/>
+      <pane ySplit="6" topLeftCell="A1204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1212" sqref="J1212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4373,11 +4376,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4391,28 +4394,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4422,14 +4425,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -37173,7 +37176,7 @@
         <v>9374</v>
       </c>
       <c r="C1130" s="19">
-        <v>38130</v>
+        <v>38129</v>
       </c>
       <c r="D1130" s="19">
         <v>4067</v>
@@ -37191,7 +37194,7 @@
         <v>5462</v>
       </c>
       <c r="I1130" s="19">
-        <v>45031</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="1131" spans="1:9" x14ac:dyDescent="0.25">
@@ -37898,7 +37901,7 @@
         <v>12378</v>
       </c>
       <c r="C1155" s="19">
-        <v>48818</v>
+        <v>48817</v>
       </c>
       <c r="D1155" s="19">
         <v>3944</v>
@@ -38681,7 +38684,7 @@
         <v>8774</v>
       </c>
       <c r="C1182" s="19">
-        <v>40887</v>
+        <v>40884</v>
       </c>
       <c r="D1182" s="19">
         <v>4660</v>
@@ -38699,7 +38702,7 @@
         <v>8413</v>
       </c>
       <c r="I1182" s="19">
-        <v>50236</v>
+        <v>50233</v>
       </c>
     </row>
     <row r="1183" spans="1:9" x14ac:dyDescent="0.25">
@@ -38783,10 +38786,10 @@
         <v>4806</v>
       </c>
       <c r="H1185" s="19">
-        <v>21149</v>
+        <v>21217</v>
       </c>
       <c r="I1185" s="19">
-        <v>53251</v>
+        <v>53319</v>
       </c>
     </row>
     <row r="1186" spans="1:9" x14ac:dyDescent="0.25">
@@ -38797,10 +38800,10 @@
         <v>9438</v>
       </c>
       <c r="C1186" s="19">
-        <v>35794</v>
+        <v>35791</v>
       </c>
       <c r="D1186" s="19">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="E1186" s="18">
         <v>307</v>
@@ -38812,10 +38815,10 @@
         <v>3311</v>
       </c>
       <c r="H1186" s="19">
-        <v>12385</v>
+        <v>12484</v>
       </c>
       <c r="I1186" s="19">
-        <v>49196</v>
+        <v>49292</v>
       </c>
     </row>
     <row r="1187" spans="1:9" x14ac:dyDescent="0.25">
@@ -38870,10 +38873,10 @@
         <v>4532</v>
       </c>
       <c r="H1188" s="19">
-        <v>5574</v>
+        <v>5543</v>
       </c>
       <c r="I1188" s="19">
-        <v>59149</v>
+        <v>59118</v>
       </c>
     </row>
     <row r="1189" spans="1:9" x14ac:dyDescent="0.25">
@@ -38910,13 +38913,13 @@
         <v>1194</v>
       </c>
       <c r="B1190" s="19">
-        <v>8212</v>
+        <v>8218</v>
       </c>
       <c r="C1190" s="19">
         <v>30532</v>
       </c>
       <c r="D1190" s="19">
-        <v>3718</v>
+        <v>3715</v>
       </c>
       <c r="E1190" s="18">
         <v>195</v>
@@ -39026,13 +39029,13 @@
         <v>1198</v>
       </c>
       <c r="B1194" s="19">
-        <v>11130</v>
+        <v>11095</v>
       </c>
       <c r="C1194" s="19">
-        <v>46259</v>
+        <v>46123</v>
       </c>
       <c r="D1194" s="19">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="E1194" s="18">
         <v>351</v>
@@ -39047,7 +39050,7 @@
         <v>11642</v>
       </c>
       <c r="I1194" s="19">
-        <v>59165</v>
+        <v>59029</v>
       </c>
     </row>
     <row r="1195" spans="1:9" x14ac:dyDescent="0.25">
@@ -39160,10 +39163,10 @@
         <v>5125</v>
       </c>
       <c r="H1198" s="19">
-        <v>5122</v>
+        <v>5176</v>
       </c>
       <c r="I1198" s="19">
-        <v>47620</v>
+        <v>47673</v>
       </c>
     </row>
     <row r="1199" spans="1:9" x14ac:dyDescent="0.25">
@@ -39174,10 +39177,10 @@
         <v>9752</v>
       </c>
       <c r="C1199" s="19">
-        <v>43478</v>
+        <v>43477</v>
       </c>
       <c r="D1199" s="19">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="E1199" s="18">
         <v>338</v>
@@ -39247,10 +39250,10 @@
         <v>4417</v>
       </c>
       <c r="H1201" s="19">
-        <v>7768</v>
+        <v>7795</v>
       </c>
       <c r="I1201" s="19">
-        <v>78989</v>
+        <v>79016</v>
       </c>
     </row>
     <row r="1202" spans="1:9" x14ac:dyDescent="0.25">
@@ -39276,10 +39279,10 @@
         <v>4497</v>
       </c>
       <c r="H1202" s="19">
-        <v>10858</v>
+        <v>10889</v>
       </c>
       <c r="I1202" s="19">
-        <v>86820</v>
+        <v>86851</v>
       </c>
     </row>
     <row r="1203" spans="1:9" x14ac:dyDescent="0.25">
@@ -39334,10 +39337,10 @@
         <v>3933</v>
       </c>
       <c r="H1204" s="19">
-        <v>5978</v>
+        <v>6037</v>
       </c>
       <c r="I1204" s="19">
-        <v>52801</v>
+        <v>52859</v>
       </c>
     </row>
     <row r="1205" spans="1:9" x14ac:dyDescent="0.25">
@@ -39348,10 +39351,10 @@
         <v>10715</v>
       </c>
       <c r="C1205" s="19">
-        <v>45678</v>
+        <v>45672</v>
       </c>
       <c r="D1205" s="19">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="E1205" s="18">
         <v>268</v>
@@ -39366,7 +39369,7 @@
         <v>7928</v>
       </c>
       <c r="I1205" s="19">
-        <v>54716</v>
+        <v>54710</v>
       </c>
     </row>
     <row r="1206" spans="1:9" x14ac:dyDescent="0.25">
@@ -39406,7 +39409,7 @@
         <v>8228</v>
       </c>
       <c r="C1207" s="19">
-        <v>40004</v>
+        <v>40003</v>
       </c>
       <c r="D1207" s="19">
         <v>4862</v>
@@ -39421,10 +39424,10 @@
         <v>5233</v>
       </c>
       <c r="H1207" s="19">
-        <v>6224</v>
+        <v>6228</v>
       </c>
       <c r="I1207" s="19">
-        <v>48980</v>
+        <v>48983</v>
       </c>
     </row>
     <row r="1208" spans="1:9" x14ac:dyDescent="0.25">
@@ -39435,10 +39438,10 @@
         <v>8772</v>
       </c>
       <c r="C1208" s="19">
-        <v>39771</v>
+        <v>39766</v>
       </c>
       <c r="D1208" s="19">
-        <v>4534</v>
+        <v>4533</v>
       </c>
       <c r="E1208" s="18">
         <v>263</v>
@@ -39453,7 +39456,7 @@
         <v>5998</v>
       </c>
       <c r="I1208" s="19">
-        <v>47591</v>
+        <v>47586</v>
       </c>
     </row>
     <row r="1209" spans="1:9" x14ac:dyDescent="0.25">
@@ -39461,13 +39464,13 @@
         <v>1213</v>
       </c>
       <c r="B1209" s="19">
-        <v>7510</v>
+        <v>7467</v>
       </c>
       <c r="C1209" s="19">
-        <v>34928</v>
+        <v>34579</v>
       </c>
       <c r="D1209" s="19">
-        <v>4651</v>
+        <v>4631</v>
       </c>
       <c r="E1209" s="18">
         <v>294</v>
@@ -39479,10 +39482,10 @@
         <v>6097</v>
       </c>
       <c r="H1209" s="19">
-        <v>4926</v>
+        <v>4837</v>
       </c>
       <c r="I1209" s="19">
-        <v>41644</v>
+        <v>41206</v>
       </c>
     </row>
     <row r="1210" spans="1:9" x14ac:dyDescent="0.25">
@@ -39490,28 +39493,28 @@
         <v>1214</v>
       </c>
       <c r="B1210" s="19">
-        <v>7368</v>
+        <v>7981</v>
       </c>
       <c r="C1210" s="19">
-        <v>35534</v>
+        <v>38453</v>
       </c>
       <c r="D1210" s="19">
-        <v>4822</v>
+        <v>4818</v>
       </c>
       <c r="E1210" s="18">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="F1210" s="19">
-        <v>1834</v>
+        <v>1707</v>
       </c>
       <c r="G1210" s="19">
-        <v>4982</v>
+        <v>5258</v>
       </c>
       <c r="H1210" s="19">
-        <v>5472</v>
+        <v>5550</v>
       </c>
       <c r="I1210" s="19">
-        <v>42841</v>
+        <v>45709</v>
       </c>
     </row>
     <row r="1211" spans="1:9" x14ac:dyDescent="0.25">
@@ -39519,42 +39522,71 @@
         <v>1215</v>
       </c>
       <c r="B1211" s="19">
-        <v>7580</v>
+        <v>8895</v>
       </c>
       <c r="C1211" s="19">
-        <v>38172</v>
+        <v>42893</v>
       </c>
       <c r="D1211" s="19">
-        <v>5036</v>
+        <v>4822</v>
       </c>
       <c r="E1211" s="18">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="F1211" s="19">
-        <v>1392</v>
+        <v>1988</v>
       </c>
       <c r="G1211" s="19">
-        <v>5948</v>
+        <v>5675</v>
       </c>
       <c r="H1211" s="19">
-        <v>8563</v>
+        <v>8905</v>
       </c>
       <c r="I1211" s="19">
-        <v>48126</v>
+        <v>53786</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1212" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1212" s="19">
+        <v>9615</v>
+      </c>
+      <c r="C1212" s="19">
+        <v>45765</v>
+      </c>
+      <c r="D1212" s="19">
+        <v>4760</v>
+      </c>
+      <c r="E1212" s="18">
+        <v>363</v>
+      </c>
+      <c r="F1212" s="19">
+        <v>1964</v>
+      </c>
+      <c r="G1212" s="19">
+        <v>5409</v>
+      </c>
+      <c r="H1212" s="19">
+        <v>5612</v>
+      </c>
+      <c r="I1212" s="19">
+        <v>53341</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B30F4-F81F-49EC-87D6-9B685C645470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E943771C-2672-4B52-A32B-CFB00BCF2FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="1218">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3688,6 +3688,9 @@
   </si>
   <si>
     <t>02/02/2025 al 08/02/2025</t>
+  </si>
+  <si>
+    <t>09/02/2025 al 15/02/2025</t>
   </si>
 </sst>
 </file>
@@ -3933,13 +3936,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4262,11 +4265,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1212"/>
+  <dimension ref="A1:P1213"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1212" sqref="J1212"/>
+      <pane ySplit="6" topLeftCell="A1208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1215" sqref="M1215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4376,11 +4379,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4394,28 +4397,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4425,14 +4428,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -38916,7 +38919,7 @@
         <v>8218</v>
       </c>
       <c r="C1190" s="19">
-        <v>30532</v>
+        <v>30531</v>
       </c>
       <c r="D1190" s="19">
         <v>3715</v>
@@ -38934,7 +38937,7 @@
         <v>6299</v>
       </c>
       <c r="I1190" s="19">
-        <v>37747</v>
+        <v>37746</v>
       </c>
     </row>
     <row r="1191" spans="1:9" x14ac:dyDescent="0.25">
@@ -38942,10 +38945,10 @@
         <v>1195</v>
       </c>
       <c r="B1191" s="19">
-        <v>10274</v>
+        <v>10273</v>
       </c>
       <c r="C1191" s="19">
-        <v>46857</v>
+        <v>46855</v>
       </c>
       <c r="D1191" s="19">
         <v>4561</v>
@@ -38963,7 +38966,7 @@
         <v>7335</v>
       </c>
       <c r="I1191" s="19">
-        <v>55675</v>
+        <v>55672</v>
       </c>
     </row>
     <row r="1192" spans="1:9" x14ac:dyDescent="0.25">
@@ -39047,10 +39050,10 @@
         <v>3607</v>
       </c>
       <c r="H1194" s="19">
-        <v>11642</v>
+        <v>11635</v>
       </c>
       <c r="I1194" s="19">
-        <v>59029</v>
+        <v>59023</v>
       </c>
     </row>
     <row r="1195" spans="1:9" x14ac:dyDescent="0.25">
@@ -39261,13 +39264,13 @@
         <v>1206</v>
       </c>
       <c r="B1202" s="19">
-        <v>17359</v>
+        <v>17321</v>
       </c>
       <c r="C1202" s="19">
-        <v>74075</v>
+        <v>73932</v>
       </c>
       <c r="D1202" s="19">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="E1202" s="18">
         <v>419</v>
@@ -39279,10 +39282,10 @@
         <v>4497</v>
       </c>
       <c r="H1202" s="19">
-        <v>10889</v>
+        <v>10842</v>
       </c>
       <c r="I1202" s="19">
-        <v>86851</v>
+        <v>86660</v>
       </c>
     </row>
     <row r="1203" spans="1:9" x14ac:dyDescent="0.25">
@@ -39337,10 +39340,10 @@
         <v>3933</v>
       </c>
       <c r="H1204" s="19">
-        <v>6037</v>
+        <v>6036</v>
       </c>
       <c r="I1204" s="19">
-        <v>52859</v>
+        <v>52858</v>
       </c>
     </row>
     <row r="1205" spans="1:9" x14ac:dyDescent="0.25">
@@ -39464,13 +39467,13 @@
         <v>1213</v>
       </c>
       <c r="B1209" s="19">
-        <v>7467</v>
+        <v>7445</v>
       </c>
       <c r="C1209" s="19">
-        <v>34579</v>
+        <v>34523</v>
       </c>
       <c r="D1209" s="19">
-        <v>4631</v>
+        <v>4637</v>
       </c>
       <c r="E1209" s="18">
         <v>294</v>
@@ -39485,7 +39488,7 @@
         <v>4837</v>
       </c>
       <c r="I1209" s="19">
-        <v>41206</v>
+        <v>41150</v>
       </c>
     </row>
     <row r="1210" spans="1:9" x14ac:dyDescent="0.25">
@@ -39493,28 +39496,28 @@
         <v>1214</v>
       </c>
       <c r="B1210" s="19">
-        <v>7981</v>
+        <v>7934</v>
       </c>
       <c r="C1210" s="19">
-        <v>38453</v>
+        <v>38374</v>
       </c>
       <c r="D1210" s="19">
-        <v>4818</v>
+        <v>4836</v>
       </c>
       <c r="E1210" s="18">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="F1210" s="19">
-        <v>1707</v>
+        <v>1645</v>
       </c>
       <c r="G1210" s="19">
-        <v>5258</v>
+        <v>5390</v>
       </c>
       <c r="H1210" s="19">
-        <v>5550</v>
+        <v>5730</v>
       </c>
       <c r="I1210" s="19">
-        <v>45709</v>
+        <v>45749</v>
       </c>
     </row>
     <row r="1211" spans="1:9" x14ac:dyDescent="0.25">
@@ -39522,28 +39525,28 @@
         <v>1215</v>
       </c>
       <c r="B1211" s="19">
-        <v>8895</v>
+        <v>9361</v>
       </c>
       <c r="C1211" s="19">
-        <v>42893</v>
+        <v>44536</v>
       </c>
       <c r="D1211" s="19">
-        <v>4822</v>
+        <v>4758</v>
       </c>
       <c r="E1211" s="18">
-        <v>350</v>
+        <v>449</v>
       </c>
       <c r="F1211" s="19">
-        <v>1988</v>
+        <v>2422</v>
       </c>
       <c r="G1211" s="19">
-        <v>5675</v>
+        <v>5397</v>
       </c>
       <c r="H1211" s="19">
-        <v>8905</v>
+        <v>9083</v>
       </c>
       <c r="I1211" s="19">
-        <v>53786</v>
+        <v>56042</v>
       </c>
     </row>
     <row r="1212" spans="1:9" x14ac:dyDescent="0.25">
@@ -39551,42 +39554,71 @@
         <v>1216</v>
       </c>
       <c r="B1212" s="19">
-        <v>9615</v>
+        <v>13250</v>
       </c>
       <c r="C1212" s="19">
-        <v>45765</v>
+        <v>60849</v>
       </c>
       <c r="D1212" s="19">
-        <v>4760</v>
+        <v>4592</v>
       </c>
       <c r="E1212" s="18">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F1212" s="19">
-        <v>1964</v>
+        <v>1906</v>
       </c>
       <c r="G1212" s="19">
-        <v>5409</v>
+        <v>5306</v>
       </c>
       <c r="H1212" s="19">
-        <v>5612</v>
+        <v>7634</v>
       </c>
       <c r="I1212" s="19">
-        <v>53341</v>
+        <v>70390</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1213" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1213" s="19">
+        <v>8056</v>
+      </c>
+      <c r="C1213" s="19">
+        <v>37027</v>
+      </c>
+      <c r="D1213" s="19">
+        <v>4596</v>
+      </c>
+      <c r="E1213" s="18">
+        <v>416</v>
+      </c>
+      <c r="F1213" s="19">
+        <v>1511</v>
+      </c>
+      <c r="G1213" s="19">
+        <v>3636</v>
+      </c>
+      <c r="H1213" s="19">
+        <v>6478</v>
+      </c>
+      <c r="I1213" s="19">
+        <v>45016</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E943771C-2672-4B52-A32B-CFB00BCF2FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3BE395-E0F7-43A3-89D5-39D52D19AE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1219">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3691,6 +3691,9 @@
   </si>
   <si>
     <t>09/02/2025 al 15/02/2025</t>
+  </si>
+  <si>
+    <t>16/02/2025 al 22/02/2025</t>
   </si>
 </sst>
 </file>
@@ -3936,13 +3939,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4265,11 +4268,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1213"/>
+  <dimension ref="A1:P1214"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1215" sqref="M1215"/>
+      <pane ySplit="6" topLeftCell="A1206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1211" sqref="D1211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4379,11 +4382,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4397,28 +4400,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4428,14 +4431,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -37980,7 +37983,7 @@
         <v>6213</v>
       </c>
       <c r="I1157" s="19">
-        <v>49707</v>
+        <v>49706</v>
       </c>
     </row>
     <row r="1158" spans="1:9" x14ac:dyDescent="0.25">
@@ -38023,7 +38026,7 @@
         <v>41477</v>
       </c>
       <c r="D1159" s="19">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="E1159" s="18">
         <v>371</v>
@@ -38038,7 +38041,7 @@
         <v>6339</v>
       </c>
       <c r="I1159" s="19">
-        <v>49172</v>
+        <v>49171</v>
       </c>
     </row>
     <row r="1160" spans="1:9" x14ac:dyDescent="0.25">
@@ -38194,7 +38197,7 @@
         <v>11798</v>
       </c>
       <c r="C1165" s="19">
-        <v>46606</v>
+        <v>46605</v>
       </c>
       <c r="D1165" s="19">
         <v>3950</v>
@@ -38223,10 +38226,10 @@
         <v>8750</v>
       </c>
       <c r="C1166" s="19">
-        <v>33932</v>
+        <v>33929</v>
       </c>
       <c r="D1166" s="19">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="E1166" s="18">
         <v>472</v>
@@ -38241,7 +38244,7 @@
         <v>7485</v>
       </c>
       <c r="I1166" s="19">
-        <v>43434</v>
+        <v>43431</v>
       </c>
     </row>
     <row r="1167" spans="1:9" x14ac:dyDescent="0.25">
@@ -38310,7 +38313,7 @@
         <v>8822</v>
       </c>
       <c r="C1169" s="19">
-        <v>34697</v>
+        <v>34696</v>
       </c>
       <c r="D1169" s="19">
         <v>3933</v>
@@ -38328,7 +38331,7 @@
         <v>5186</v>
       </c>
       <c r="I1169" s="19">
-        <v>41114</v>
+        <v>41113</v>
       </c>
     </row>
     <row r="1170" spans="1:9" x14ac:dyDescent="0.25">
@@ -38357,7 +38360,7 @@
         <v>7181</v>
       </c>
       <c r="I1170" s="19">
-        <v>47403</v>
+        <v>47402</v>
       </c>
     </row>
     <row r="1171" spans="1:9" x14ac:dyDescent="0.25">
@@ -38542,7 +38545,7 @@
         <v>7785</v>
       </c>
       <c r="C1177" s="19">
-        <v>33151</v>
+        <v>33150</v>
       </c>
       <c r="D1177" s="19">
         <v>4258</v>
@@ -38571,7 +38574,7 @@
         <v>12128</v>
       </c>
       <c r="C1178" s="19">
-        <v>48817</v>
+        <v>48819</v>
       </c>
       <c r="D1178" s="19">
         <v>4025</v>
@@ -38589,7 +38592,7 @@
         <v>7100</v>
       </c>
       <c r="I1178" s="19">
-        <v>56827</v>
+        <v>56829</v>
       </c>
     </row>
     <row r="1179" spans="1:9" x14ac:dyDescent="0.25">
@@ -38600,7 +38603,7 @@
         <v>11357</v>
       </c>
       <c r="C1179" s="19">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="D1179" s="19">
         <v>3936</v>
@@ -38618,7 +38621,7 @@
         <v>7025</v>
       </c>
       <c r="I1179" s="19">
-        <v>52647</v>
+        <v>52646</v>
       </c>
     </row>
     <row r="1180" spans="1:9" x14ac:dyDescent="0.25">
@@ -38626,13 +38629,13 @@
         <v>1184</v>
       </c>
       <c r="B1180" s="19">
-        <v>10863</v>
+        <v>10864</v>
       </c>
       <c r="C1180" s="19">
-        <v>43683</v>
+        <v>43752</v>
       </c>
       <c r="D1180" s="19">
-        <v>4021</v>
+        <v>4027</v>
       </c>
       <c r="E1180" s="18">
         <v>96</v>
@@ -38647,7 +38650,7 @@
         <v>7000</v>
       </c>
       <c r="I1180" s="19">
-        <v>51110</v>
+        <v>51180</v>
       </c>
     </row>
     <row r="1181" spans="1:9" x14ac:dyDescent="0.25">
@@ -38847,10 +38850,10 @@
         <v>4896</v>
       </c>
       <c r="H1187" s="19">
-        <v>3932</v>
+        <v>4036</v>
       </c>
       <c r="I1187" s="19">
-        <v>30265</v>
+        <v>30369</v>
       </c>
     </row>
     <row r="1188" spans="1:9" x14ac:dyDescent="0.25">
@@ -38876,10 +38879,10 @@
         <v>4532</v>
       </c>
       <c r="H1188" s="19">
-        <v>5543</v>
+        <v>5610</v>
       </c>
       <c r="I1188" s="19">
-        <v>59118</v>
+        <v>59185</v>
       </c>
     </row>
     <row r="1189" spans="1:9" x14ac:dyDescent="0.25">
@@ -38948,7 +38951,7 @@
         <v>10273</v>
       </c>
       <c r="C1191" s="19">
-        <v>46855</v>
+        <v>46853</v>
       </c>
       <c r="D1191" s="19">
         <v>4561</v>
@@ -38966,7 +38969,7 @@
         <v>7335</v>
       </c>
       <c r="I1191" s="19">
-        <v>55672</v>
+        <v>55671</v>
       </c>
     </row>
     <row r="1192" spans="1:9" x14ac:dyDescent="0.25">
@@ -38974,13 +38977,13 @@
         <v>1196</v>
       </c>
       <c r="B1192" s="19">
-        <v>12879</v>
+        <v>12845</v>
       </c>
       <c r="C1192" s="19">
-        <v>52165</v>
+        <v>52049</v>
       </c>
       <c r="D1192" s="19">
-        <v>4050</v>
+        <v>4052</v>
       </c>
       <c r="E1192" s="18">
         <v>99</v>
@@ -38995,7 +38998,7 @@
         <v>4925</v>
       </c>
       <c r="I1192" s="19">
-        <v>57648</v>
+        <v>57532</v>
       </c>
     </row>
     <row r="1193" spans="1:9" x14ac:dyDescent="0.25">
@@ -39003,13 +39006,13 @@
         <v>1197</v>
       </c>
       <c r="B1193" s="19">
-        <v>7086</v>
+        <v>7098</v>
       </c>
       <c r="C1193" s="19">
-        <v>32862</v>
+        <v>32976</v>
       </c>
       <c r="D1193" s="19">
-        <v>4638</v>
+        <v>4646</v>
       </c>
       <c r="E1193" s="18">
         <v>229</v>
@@ -39024,7 +39027,7 @@
         <v>3702</v>
       </c>
       <c r="I1193" s="19">
-        <v>37591</v>
+        <v>37705</v>
       </c>
     </row>
     <row r="1194" spans="1:9" x14ac:dyDescent="0.25">
@@ -39064,10 +39067,10 @@
         <v>8256</v>
       </c>
       <c r="C1195" s="19">
-        <v>37471</v>
+        <v>37470</v>
       </c>
       <c r="D1195" s="19">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="E1195" s="18">
         <v>356</v>
@@ -39169,7 +39172,7 @@
         <v>5176</v>
       </c>
       <c r="I1198" s="19">
-        <v>47673</v>
+        <v>47674</v>
       </c>
     </row>
     <row r="1199" spans="1:9" x14ac:dyDescent="0.25">
@@ -39238,10 +39241,10 @@
         <v>14094</v>
       </c>
       <c r="C1201" s="19">
-        <v>69594</v>
+        <v>69617</v>
       </c>
       <c r="D1201" s="19">
-        <v>4938</v>
+        <v>4940</v>
       </c>
       <c r="E1201" s="18">
         <v>368</v>
@@ -39256,7 +39259,7 @@
         <v>7795</v>
       </c>
       <c r="I1201" s="19">
-        <v>79016</v>
+        <v>79038</v>
       </c>
     </row>
     <row r="1202" spans="1:9" x14ac:dyDescent="0.25">
@@ -39311,10 +39314,10 @@
         <v>4514</v>
       </c>
       <c r="H1203" s="19">
-        <v>13775</v>
+        <v>13735</v>
       </c>
       <c r="I1203" s="19">
-        <v>47192</v>
+        <v>47151</v>
       </c>
     </row>
     <row r="1204" spans="1:9" x14ac:dyDescent="0.25">
@@ -39363,16 +39366,16 @@
         <v>268</v>
       </c>
       <c r="F1205" s="19">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G1205" s="19">
-        <v>4150</v>
+        <v>4146</v>
       </c>
       <c r="H1205" s="19">
         <v>7928</v>
       </c>
       <c r="I1205" s="19">
-        <v>54710</v>
+        <v>54709</v>
       </c>
     </row>
     <row r="1206" spans="1:9" x14ac:dyDescent="0.25">
@@ -39395,13 +39398,13 @@
         <v>739</v>
       </c>
       <c r="G1206" s="19">
-        <v>4946</v>
+        <v>4947</v>
       </c>
       <c r="H1206" s="19">
-        <v>9263</v>
+        <v>9264</v>
       </c>
       <c r="I1206" s="19">
-        <v>49029</v>
+        <v>49030</v>
       </c>
     </row>
     <row r="1207" spans="1:9" x14ac:dyDescent="0.25">
@@ -39412,7 +39415,7 @@
         <v>8228</v>
       </c>
       <c r="C1207" s="19">
-        <v>40003</v>
+        <v>40004</v>
       </c>
       <c r="D1207" s="19">
         <v>4862</v>
@@ -39430,7 +39433,7 @@
         <v>6228</v>
       </c>
       <c r="I1207" s="19">
-        <v>48983</v>
+        <v>48984</v>
       </c>
     </row>
     <row r="1208" spans="1:9" x14ac:dyDescent="0.25">
@@ -39525,28 +39528,28 @@
         <v>1215</v>
       </c>
       <c r="B1211" s="19">
-        <v>9361</v>
+        <v>9492</v>
       </c>
       <c r="C1211" s="19">
-        <v>44536</v>
+        <v>45123</v>
       </c>
       <c r="D1211" s="19">
-        <v>4758</v>
+        <v>4754</v>
       </c>
       <c r="E1211" s="18">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="F1211" s="19">
-        <v>2422</v>
+        <v>2258</v>
       </c>
       <c r="G1211" s="19">
-        <v>5397</v>
+        <v>5297</v>
       </c>
       <c r="H1211" s="19">
-        <v>9083</v>
+        <v>10622</v>
       </c>
       <c r="I1211" s="19">
-        <v>56042</v>
+        <v>58003</v>
       </c>
     </row>
     <row r="1212" spans="1:9" x14ac:dyDescent="0.25">
@@ -39554,28 +39557,28 @@
         <v>1216</v>
       </c>
       <c r="B1212" s="19">
-        <v>13250</v>
+        <v>14360</v>
       </c>
       <c r="C1212" s="19">
-        <v>60849</v>
+        <v>64976</v>
       </c>
       <c r="D1212" s="19">
-        <v>4592</v>
+        <v>4525</v>
       </c>
       <c r="E1212" s="18">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="F1212" s="19">
-        <v>1906</v>
+        <v>2043</v>
       </c>
       <c r="G1212" s="19">
-        <v>5306</v>
+        <v>5350</v>
       </c>
       <c r="H1212" s="19">
-        <v>7634</v>
+        <v>8728</v>
       </c>
       <c r="I1212" s="19">
-        <v>70390</v>
+        <v>75747</v>
       </c>
     </row>
     <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
@@ -39583,13 +39586,13 @@
         <v>1217</v>
       </c>
       <c r="B1213" s="19">
-        <v>8056</v>
+        <v>11363</v>
       </c>
       <c r="C1213" s="19">
-        <v>37027</v>
+        <v>51661</v>
       </c>
       <c r="D1213" s="19">
-        <v>4596</v>
+        <v>4547</v>
       </c>
       <c r="E1213" s="18">
         <v>416</v>
@@ -39601,24 +39604,53 @@
         <v>3636</v>
       </c>
       <c r="H1213" s="19">
-        <v>6478</v>
+        <v>8108</v>
       </c>
       <c r="I1213" s="19">
-        <v>45016</v>
+        <v>61280</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1214" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1214" s="19">
+        <v>7083</v>
+      </c>
+      <c r="C1214" s="19">
+        <v>38428</v>
+      </c>
+      <c r="D1214" s="19">
+        <v>5425</v>
+      </c>
+      <c r="E1214" s="18">
+        <v>166</v>
+      </c>
+      <c r="F1214" s="18">
+        <v>733</v>
+      </c>
+      <c r="G1214" s="19">
+        <v>4402</v>
+      </c>
+      <c r="H1214" s="19">
+        <v>2415</v>
+      </c>
+      <c r="I1214" s="19">
+        <v>41576</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3BE395-E0F7-43A3-89D5-39D52D19AE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD57CE3-42F6-4FFF-B93A-A98C05138365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="1220">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3694,6 +3694,9 @@
   </si>
   <si>
     <t>16/02/2025 al 22/02/2025</t>
+  </si>
+  <si>
+    <t>23/02/2025 al 01/03/2025</t>
   </si>
 </sst>
 </file>
@@ -3939,13 +3942,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4268,11 +4271,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1214"/>
+  <dimension ref="A1:P1215"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1211" sqref="D1211"/>
+      <pane ySplit="6" topLeftCell="A1207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1219" sqref="E1219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4382,11 +4385,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4400,28 +4403,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4431,14 +4434,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -39537,19 +39540,19 @@
         <v>4754</v>
       </c>
       <c r="E1211" s="18">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="F1211" s="19">
-        <v>2258</v>
+        <v>2091</v>
       </c>
       <c r="G1211" s="19">
-        <v>5297</v>
+        <v>5194</v>
       </c>
       <c r="H1211" s="19">
         <v>10622</v>
       </c>
       <c r="I1211" s="19">
-        <v>58003</v>
+        <v>57836</v>
       </c>
     </row>
     <row r="1212" spans="1:9" x14ac:dyDescent="0.25">
@@ -39557,28 +39560,28 @@
         <v>1216</v>
       </c>
       <c r="B1212" s="19">
-        <v>14360</v>
+        <v>14658</v>
       </c>
       <c r="C1212" s="19">
-        <v>64976</v>
+        <v>66214</v>
       </c>
       <c r="D1212" s="19">
-        <v>4525</v>
+        <v>4517</v>
       </c>
       <c r="E1212" s="18">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="F1212" s="19">
-        <v>2043</v>
+        <v>2209</v>
       </c>
       <c r="G1212" s="19">
-        <v>5350</v>
+        <v>5449</v>
       </c>
       <c r="H1212" s="19">
-        <v>8728</v>
+        <v>8717</v>
       </c>
       <c r="I1212" s="19">
-        <v>75747</v>
+        <v>77141</v>
       </c>
     </row>
     <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
@@ -39586,28 +39589,28 @@
         <v>1217</v>
       </c>
       <c r="B1213" s="19">
-        <v>11363</v>
+        <v>12633</v>
       </c>
       <c r="C1213" s="19">
-        <v>51661</v>
+        <v>57578</v>
       </c>
       <c r="D1213" s="19">
-        <v>4547</v>
+        <v>4558</v>
       </c>
       <c r="E1213" s="18">
         <v>416</v>
       </c>
       <c r="F1213" s="19">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="G1213" s="19">
-        <v>3636</v>
+        <v>3616</v>
       </c>
       <c r="H1213" s="19">
-        <v>8108</v>
+        <v>8925</v>
       </c>
       <c r="I1213" s="19">
-        <v>61280</v>
+        <v>68006</v>
       </c>
     </row>
     <row r="1214" spans="1:9" x14ac:dyDescent="0.25">
@@ -39615,42 +39618,71 @@
         <v>1218</v>
       </c>
       <c r="B1214" s="19">
-        <v>7083</v>
+        <v>8923</v>
       </c>
       <c r="C1214" s="19">
-        <v>38428</v>
+        <v>46743</v>
       </c>
       <c r="D1214" s="19">
-        <v>5425</v>
+        <v>5238</v>
       </c>
       <c r="E1214" s="18">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="F1214" s="18">
-        <v>733</v>
+        <v>897</v>
       </c>
       <c r="G1214" s="19">
-        <v>4402</v>
+        <v>4733</v>
       </c>
       <c r="H1214" s="19">
-        <v>2415</v>
+        <v>3369</v>
       </c>
       <c r="I1214" s="19">
-        <v>41576</v>
+        <v>51010</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1215" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1215" s="19">
+        <v>7055</v>
+      </c>
+      <c r="C1215" s="19">
+        <v>34479</v>
+      </c>
+      <c r="D1215" s="19">
+        <v>4887</v>
+      </c>
+      <c r="E1215" s="18">
+        <v>378</v>
+      </c>
+      <c r="F1215" s="19">
+        <v>1701</v>
+      </c>
+      <c r="G1215" s="19">
+        <v>4497</v>
+      </c>
+      <c r="H1215" s="19">
+        <v>5959</v>
+      </c>
+      <c r="I1215" s="19">
+        <v>42138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD57CE3-42F6-4FFF-B93A-A98C05138365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13193173-77BD-4933-90F8-1A6E272E4429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1221">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3697,6 +3697,9 @@
   </si>
   <si>
     <t>23/02/2025 al 01/03/2025</t>
+  </si>
+  <si>
+    <t>02/03/2025 al 08/03/2025</t>
   </si>
 </sst>
 </file>
@@ -3942,13 +3945,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4271,11 +4274,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1215"/>
+  <dimension ref="A1:P1216"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1219" sqref="E1219"/>
+      <pane ySplit="6" topLeftCell="A1211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1214" sqref="E1214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4385,11 +4388,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4403,28 +4406,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4434,14 +4437,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -37606,10 +37609,10 @@
         <v>5285</v>
       </c>
       <c r="H1144" s="19">
-        <v>16308</v>
+        <v>16303</v>
       </c>
       <c r="I1144" s="19">
-        <v>42424</v>
+        <v>42420</v>
       </c>
     </row>
     <row r="1145" spans="1:9" x14ac:dyDescent="0.25">
@@ -38940,10 +38943,10 @@
         <v>4702</v>
       </c>
       <c r="H1190" s="19">
-        <v>6299</v>
+        <v>6402</v>
       </c>
       <c r="I1190" s="19">
-        <v>37746</v>
+        <v>37849</v>
       </c>
     </row>
     <row r="1191" spans="1:9" x14ac:dyDescent="0.25">
@@ -38969,10 +38972,10 @@
         <v>3978</v>
       </c>
       <c r="H1191" s="19">
-        <v>7335</v>
+        <v>7429</v>
       </c>
       <c r="I1191" s="19">
-        <v>55671</v>
+        <v>55765</v>
       </c>
     </row>
     <row r="1192" spans="1:9" x14ac:dyDescent="0.25">
@@ -39273,7 +39276,7 @@
         <v>17321</v>
       </c>
       <c r="C1202" s="19">
-        <v>73932</v>
+        <v>73931</v>
       </c>
       <c r="D1202" s="19">
         <v>4268</v>
@@ -39291,7 +39294,7 @@
         <v>10842</v>
       </c>
       <c r="I1202" s="19">
-        <v>86660</v>
+        <v>86659</v>
       </c>
     </row>
     <row r="1203" spans="1:9" x14ac:dyDescent="0.25">
@@ -39331,7 +39334,7 @@
         <v>9824</v>
       </c>
       <c r="C1204" s="19">
-        <v>45910</v>
+        <v>45909</v>
       </c>
       <c r="D1204" s="19">
         <v>4673</v>
@@ -39349,7 +39352,7 @@
         <v>6036</v>
       </c>
       <c r="I1204" s="19">
-        <v>52858</v>
+        <v>52857</v>
       </c>
     </row>
     <row r="1205" spans="1:9" x14ac:dyDescent="0.25">
@@ -39534,7 +39537,7 @@
         <v>9492</v>
       </c>
       <c r="C1211" s="19">
-        <v>45123</v>
+        <v>45122</v>
       </c>
       <c r="D1211" s="19">
         <v>4754</v>
@@ -39560,28 +39563,28 @@
         <v>1216</v>
       </c>
       <c r="B1212" s="19">
-        <v>14658</v>
+        <v>14637</v>
       </c>
       <c r="C1212" s="19">
-        <v>66214</v>
+        <v>66025</v>
       </c>
       <c r="D1212" s="19">
-        <v>4517</v>
+        <v>4511</v>
       </c>
       <c r="E1212" s="18">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F1212" s="19">
-        <v>2209</v>
+        <v>2182</v>
       </c>
       <c r="G1212" s="19">
-        <v>5449</v>
+        <v>5511</v>
       </c>
       <c r="H1212" s="19">
-        <v>8717</v>
+        <v>8642</v>
       </c>
       <c r="I1212" s="19">
-        <v>77141</v>
+        <v>76848</v>
       </c>
     </row>
     <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
@@ -39589,28 +39592,28 @@
         <v>1217</v>
       </c>
       <c r="B1213" s="19">
-        <v>12633</v>
+        <v>13481</v>
       </c>
       <c r="C1213" s="19">
-        <v>57578</v>
+        <v>61061</v>
       </c>
       <c r="D1213" s="19">
-        <v>4558</v>
+        <v>4529</v>
       </c>
       <c r="E1213" s="18">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="F1213" s="19">
-        <v>1503</v>
+        <v>1718</v>
       </c>
       <c r="G1213" s="19">
-        <v>3616</v>
+        <v>4026</v>
       </c>
       <c r="H1213" s="19">
-        <v>8925</v>
+        <v>9513</v>
       </c>
       <c r="I1213" s="19">
-        <v>68006</v>
+        <v>72292</v>
       </c>
     </row>
     <row r="1214" spans="1:9" x14ac:dyDescent="0.25">
@@ -39618,28 +39621,28 @@
         <v>1218</v>
       </c>
       <c r="B1214" s="19">
-        <v>8923</v>
+        <v>9193</v>
       </c>
       <c r="C1214" s="19">
-        <v>46743</v>
+        <v>48689</v>
       </c>
       <c r="D1214" s="19">
-        <v>5238</v>
+        <v>5297</v>
       </c>
       <c r="E1214" s="18">
-        <v>190</v>
-      </c>
-      <c r="F1214" s="18">
-        <v>897</v>
+        <v>227</v>
+      </c>
+      <c r="F1214" s="19">
+        <v>1066</v>
       </c>
       <c r="G1214" s="19">
-        <v>4733</v>
+        <v>4702</v>
       </c>
       <c r="H1214" s="19">
-        <v>3369</v>
+        <v>3236</v>
       </c>
       <c r="I1214" s="19">
-        <v>51010</v>
+        <v>52991</v>
       </c>
     </row>
     <row r="1215" spans="1:9" x14ac:dyDescent="0.25">
@@ -39647,42 +39650,71 @@
         <v>1219</v>
       </c>
       <c r="B1215" s="19">
-        <v>7055</v>
+        <v>12975</v>
       </c>
       <c r="C1215" s="19">
-        <v>34479</v>
+        <v>61206</v>
       </c>
       <c r="D1215" s="19">
-        <v>4887</v>
+        <v>4717</v>
       </c>
       <c r="E1215" s="18">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="F1215" s="19">
-        <v>1701</v>
+        <v>1779</v>
       </c>
       <c r="G1215" s="19">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="H1215" s="19">
-        <v>5959</v>
+        <v>8822</v>
       </c>
       <c r="I1215" s="19">
-        <v>42138</v>
+        <v>71806</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1216" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1216" s="19">
+        <v>4377</v>
+      </c>
+      <c r="C1216" s="19">
+        <v>21804</v>
+      </c>
+      <c r="D1216" s="19">
+        <v>4982</v>
+      </c>
+      <c r="E1216" s="18">
+        <v>167</v>
+      </c>
+      <c r="F1216" s="18">
+        <v>653</v>
+      </c>
+      <c r="G1216" s="19">
+        <v>3911</v>
+      </c>
+      <c r="H1216" s="19">
+        <v>9851</v>
+      </c>
+      <c r="I1216" s="19">
+        <v>32308</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13193173-77BD-4933-90F8-1A6E272E4429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7B66B2-4DB0-4B2D-BB63-CA315C8A5B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="1222">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3700,6 +3700,9 @@
   </si>
   <si>
     <t>02/03/2025 al 08/03/2025</t>
+  </si>
+  <si>
+    <t>09/03/2025 al 15/03/2025</t>
   </si>
 </sst>
 </file>
@@ -3945,13 +3948,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4274,11 +4277,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1216"/>
+  <dimension ref="A1:P1217"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1214" sqref="E1214"/>
+      <pane ySplit="6" topLeftCell="A1203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1217" sqref="F1217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4388,11 +4391,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4406,28 +4409,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4437,14 +4440,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -39378,10 +39381,10 @@
         <v>4146</v>
       </c>
       <c r="H1205" s="19">
-        <v>7928</v>
+        <v>7927</v>
       </c>
       <c r="I1205" s="19">
-        <v>54709</v>
+        <v>54708</v>
       </c>
     </row>
     <row r="1206" spans="1:9" x14ac:dyDescent="0.25">
@@ -39508,7 +39511,7 @@
         <v>7934</v>
       </c>
       <c r="C1210" s="19">
-        <v>38374</v>
+        <v>38367</v>
       </c>
       <c r="D1210" s="19">
         <v>4836</v>
@@ -39517,16 +39520,16 @@
         <v>305</v>
       </c>
       <c r="F1210" s="19">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="G1210" s="19">
-        <v>5390</v>
+        <v>5364</v>
       </c>
       <c r="H1210" s="19">
         <v>5730</v>
       </c>
       <c r="I1210" s="19">
-        <v>45749</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="1211" spans="1:9" x14ac:dyDescent="0.25">
@@ -39546,16 +39549,16 @@
         <v>403</v>
       </c>
       <c r="F1211" s="19">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="G1211" s="19">
-        <v>5194</v>
+        <v>5197</v>
       </c>
       <c r="H1211" s="19">
         <v>10622</v>
       </c>
       <c r="I1211" s="19">
-        <v>57836</v>
+        <v>57837</v>
       </c>
     </row>
     <row r="1212" spans="1:9" x14ac:dyDescent="0.25">
@@ -39575,16 +39578,16 @@
         <v>396</v>
       </c>
       <c r="F1212" s="19">
-        <v>2182</v>
+        <v>2171</v>
       </c>
       <c r="G1212" s="19">
-        <v>5511</v>
+        <v>5484</v>
       </c>
       <c r="H1212" s="19">
-        <v>8642</v>
+        <v>8640</v>
       </c>
       <c r="I1212" s="19">
-        <v>76848</v>
+        <v>76835</v>
       </c>
     </row>
     <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
@@ -39592,13 +39595,13 @@
         <v>1217</v>
       </c>
       <c r="B1213" s="19">
-        <v>13481</v>
+        <v>13448</v>
       </c>
       <c r="C1213" s="19">
-        <v>61061</v>
+        <v>60868</v>
       </c>
       <c r="D1213" s="19">
-        <v>4529</v>
+        <v>4526</v>
       </c>
       <c r="E1213" s="18">
         <v>427</v>
@@ -39613,7 +39616,7 @@
         <v>9513</v>
       </c>
       <c r="I1213" s="19">
-        <v>72292</v>
+        <v>72099</v>
       </c>
     </row>
     <row r="1214" spans="1:9" x14ac:dyDescent="0.25">
@@ -39621,28 +39624,28 @@
         <v>1218</v>
       </c>
       <c r="B1214" s="19">
-        <v>9193</v>
+        <v>9634</v>
       </c>
       <c r="C1214" s="19">
-        <v>48689</v>
+        <v>50250</v>
       </c>
       <c r="D1214" s="19">
-        <v>5297</v>
+        <v>5216</v>
       </c>
       <c r="E1214" s="18">
-        <v>227</v>
-      </c>
-      <c r="F1214" s="19">
-        <v>1066</v>
+        <v>228</v>
+      </c>
+      <c r="F1214" s="18">
+        <v>990</v>
       </c>
       <c r="G1214" s="19">
-        <v>4702</v>
+        <v>4338</v>
       </c>
       <c r="H1214" s="19">
-        <v>3236</v>
+        <v>3780</v>
       </c>
       <c r="I1214" s="19">
-        <v>52991</v>
+        <v>55020</v>
       </c>
     </row>
     <row r="1215" spans="1:9" x14ac:dyDescent="0.25">
@@ -39650,28 +39653,28 @@
         <v>1219</v>
       </c>
       <c r="B1215" s="19">
-        <v>12975</v>
+        <v>13598</v>
       </c>
       <c r="C1215" s="19">
-        <v>61206</v>
+        <v>65311</v>
       </c>
       <c r="D1215" s="19">
-        <v>4717</v>
+        <v>4803</v>
       </c>
       <c r="E1215" s="18">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F1215" s="19">
-        <v>1779</v>
+        <v>1824</v>
       </c>
       <c r="G1215" s="19">
-        <v>4498</v>
+        <v>4554</v>
       </c>
       <c r="H1215" s="19">
-        <v>8822</v>
+        <v>8746</v>
       </c>
       <c r="I1215" s="19">
-        <v>71806</v>
+        <v>75882</v>
       </c>
     </row>
     <row r="1216" spans="1:9" x14ac:dyDescent="0.25">
@@ -39679,42 +39682,71 @@
         <v>1220</v>
       </c>
       <c r="B1216" s="19">
-        <v>4377</v>
+        <v>6302</v>
       </c>
       <c r="C1216" s="19">
-        <v>21804</v>
+        <v>30224</v>
       </c>
       <c r="D1216" s="19">
-        <v>4982</v>
+        <v>4796</v>
       </c>
       <c r="E1216" s="18">
-        <v>167</v>
-      </c>
-      <c r="F1216" s="18">
-        <v>653</v>
+        <v>249</v>
+      </c>
+      <c r="F1216" s="19">
+        <v>1176</v>
       </c>
       <c r="G1216" s="19">
-        <v>3911</v>
+        <v>4728</v>
       </c>
       <c r="H1216" s="19">
-        <v>9851</v>
+        <v>10975</v>
       </c>
       <c r="I1216" s="19">
-        <v>32308</v>
+        <v>42374</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1217" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1217" s="19">
+        <v>6279</v>
+      </c>
+      <c r="C1217" s="19">
+        <v>29097</v>
+      </c>
+      <c r="D1217" s="19">
+        <v>4634</v>
+      </c>
+      <c r="E1217" s="18">
+        <v>163</v>
+      </c>
+      <c r="F1217" s="19">
+        <v>1001</v>
+      </c>
+      <c r="G1217" s="19">
+        <v>6126</v>
+      </c>
+      <c r="H1217" s="19">
+        <v>8891</v>
+      </c>
+      <c r="I1217" s="19">
+        <v>38989</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7B66B2-4DB0-4B2D-BB63-CA315C8A5B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A13661-8CB6-4859-AC74-3D8F11E9BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="1223">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3703,6 +3703,9 @@
   </si>
   <si>
     <t>09/03/2025 al 15/03/2025</t>
+  </si>
+  <si>
+    <t>16/03/2025 al 22/03/2025</t>
   </si>
 </sst>
 </file>
@@ -4277,11 +4280,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1217"/>
+  <dimension ref="A1:P1218"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1217" sqref="F1217"/>
+      <pane ySplit="6" topLeftCell="A1213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1214" sqref="J1214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36495,10 +36498,10 @@
         <v>5681</v>
       </c>
       <c r="C1106" s="19">
-        <v>23941</v>
+        <v>23938</v>
       </c>
       <c r="D1106" s="19">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="E1106" s="18">
         <v>345</v>
@@ -36513,7 +36516,7 @@
         <v>4440</v>
       </c>
       <c r="I1106" s="19">
-        <v>29577</v>
+        <v>29574</v>
       </c>
     </row>
     <row r="1107" spans="1:9" x14ac:dyDescent="0.25">
@@ -38975,10 +38978,10 @@
         <v>3978</v>
       </c>
       <c r="H1191" s="19">
-        <v>7429</v>
+        <v>7586</v>
       </c>
       <c r="I1191" s="19">
-        <v>55765</v>
+        <v>55922</v>
       </c>
     </row>
     <row r="1192" spans="1:9" x14ac:dyDescent="0.25">
@@ -39558,7 +39561,7 @@
         <v>10622</v>
       </c>
       <c r="I1211" s="19">
-        <v>57837</v>
+        <v>57836</v>
       </c>
     </row>
     <row r="1212" spans="1:9" x14ac:dyDescent="0.25">
@@ -39569,10 +39572,10 @@
         <v>14637</v>
       </c>
       <c r="C1212" s="19">
-        <v>66025</v>
+        <v>65994</v>
       </c>
       <c r="D1212" s="19">
-        <v>4511</v>
+        <v>4509</v>
       </c>
       <c r="E1212" s="18">
         <v>396</v>
@@ -39587,7 +39590,7 @@
         <v>8640</v>
       </c>
       <c r="I1212" s="19">
-        <v>76835</v>
+        <v>76804</v>
       </c>
     </row>
     <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
@@ -39624,13 +39627,13 @@
         <v>1218</v>
       </c>
       <c r="B1214" s="19">
-        <v>9634</v>
+        <v>9787</v>
       </c>
       <c r="C1214" s="19">
-        <v>50250</v>
+        <v>51099</v>
       </c>
       <c r="D1214" s="19">
-        <v>5216</v>
+        <v>5221</v>
       </c>
       <c r="E1214" s="18">
         <v>228</v>
@@ -39642,10 +39645,10 @@
         <v>4338</v>
       </c>
       <c r="H1214" s="19">
-        <v>3780</v>
+        <v>3787</v>
       </c>
       <c r="I1214" s="19">
-        <v>55020</v>
+        <v>55876</v>
       </c>
     </row>
     <row r="1215" spans="1:9" x14ac:dyDescent="0.25">
@@ -39653,28 +39656,28 @@
         <v>1219</v>
       </c>
       <c r="B1215" s="19">
-        <v>13598</v>
+        <v>13985</v>
       </c>
       <c r="C1215" s="19">
-        <v>65311</v>
+        <v>66791</v>
       </c>
       <c r="D1215" s="19">
-        <v>4803</v>
+        <v>4776</v>
       </c>
       <c r="E1215" s="18">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="F1215" s="19">
-        <v>1824</v>
+        <v>1668</v>
       </c>
       <c r="G1215" s="19">
-        <v>4554</v>
+        <v>4650</v>
       </c>
       <c r="H1215" s="19">
-        <v>8746</v>
+        <v>8771</v>
       </c>
       <c r="I1215" s="19">
-        <v>75882</v>
+        <v>77230</v>
       </c>
     </row>
     <row r="1216" spans="1:9" x14ac:dyDescent="0.25">
@@ -39682,28 +39685,28 @@
         <v>1220</v>
       </c>
       <c r="B1216" s="19">
-        <v>6302</v>
+        <v>7658</v>
       </c>
       <c r="C1216" s="19">
-        <v>30224</v>
+        <v>36406</v>
       </c>
       <c r="D1216" s="19">
-        <v>4796</v>
+        <v>4754</v>
       </c>
       <c r="E1216" s="18">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="F1216" s="19">
-        <v>1176</v>
+        <v>1367</v>
       </c>
       <c r="G1216" s="19">
-        <v>4728</v>
+        <v>4966</v>
       </c>
       <c r="H1216" s="19">
-        <v>10975</v>
+        <v>12094</v>
       </c>
       <c r="I1216" s="19">
-        <v>42374</v>
+        <v>49867</v>
       </c>
     </row>
     <row r="1217" spans="1:9" x14ac:dyDescent="0.25">
@@ -39711,28 +39714,57 @@
         <v>1221</v>
       </c>
       <c r="B1217" s="19">
-        <v>6279</v>
+        <v>8073</v>
       </c>
       <c r="C1217" s="19">
-        <v>29097</v>
+        <v>38076</v>
       </c>
       <c r="D1217" s="19">
-        <v>4634</v>
+        <v>4717</v>
       </c>
       <c r="E1217" s="18">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="F1217" s="19">
-        <v>1001</v>
+        <v>1369</v>
       </c>
       <c r="G1217" s="19">
-        <v>6126</v>
+        <v>5243</v>
       </c>
       <c r="H1217" s="19">
-        <v>8891</v>
+        <v>9357</v>
       </c>
       <c r="I1217" s="19">
-        <v>38989</v>
+        <v>48802</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1218" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1218" s="19">
+        <v>6481</v>
+      </c>
+      <c r="C1218" s="19">
+        <v>30651</v>
+      </c>
+      <c r="D1218" s="19">
+        <v>4729</v>
+      </c>
+      <c r="E1218" s="18">
+        <v>161</v>
+      </c>
+      <c r="F1218" s="18">
+        <v>695</v>
+      </c>
+      <c r="G1218" s="19">
+        <v>4326</v>
+      </c>
+      <c r="H1218" s="19">
+        <v>5099</v>
+      </c>
+      <c r="I1218" s="19">
+        <v>36445</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A13661-8CB6-4859-AC74-3D8F11E9BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4714AEE-07DD-4B3A-98BD-23147F8D8499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="1224">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3706,6 +3706,9 @@
   </si>
   <si>
     <t>16/03/2025 al 22/03/2025</t>
+  </si>
+  <si>
+    <t>23/03/2025 al 29/03/2025</t>
   </si>
 </sst>
 </file>
@@ -3951,13 +3954,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4280,11 +4283,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1218"/>
+  <dimension ref="A1:P1219"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1214" sqref="J1214"/>
+      <pane ySplit="6" topLeftCell="A1214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1219" sqref="F1219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4394,11 +4397,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4412,28 +4415,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4443,14 +4446,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -37777,7 +37780,7 @@
         <v>41087</v>
       </c>
       <c r="D1150" s="19">
-        <v>4126</v>
+        <v>4125</v>
       </c>
       <c r="E1150" s="18">
         <v>301</v>
@@ -37792,7 +37795,7 @@
         <v>10816</v>
       </c>
       <c r="I1150" s="19">
-        <v>53015</v>
+        <v>53014</v>
       </c>
     </row>
     <row r="1151" spans="1:9" x14ac:dyDescent="0.25">
@@ -37948,7 +37951,7 @@
         <v>5171</v>
       </c>
       <c r="C1156" s="19">
-        <v>21507</v>
+        <v>21508</v>
       </c>
       <c r="D1156" s="19">
         <v>4159</v>
@@ -37966,7 +37969,7 @@
         <v>8881</v>
       </c>
       <c r="I1156" s="19">
-        <v>31270</v>
+        <v>31271</v>
       </c>
     </row>
     <row r="1157" spans="1:9" x14ac:dyDescent="0.25">
@@ -38006,10 +38009,10 @@
         <v>10030</v>
       </c>
       <c r="C1158" s="19">
-        <v>39819</v>
+        <v>39789</v>
       </c>
       <c r="D1158" s="19">
-        <v>3970</v>
+        <v>3967</v>
       </c>
       <c r="E1158" s="18">
         <v>510</v>
@@ -38024,7 +38027,7 @@
         <v>5502</v>
       </c>
       <c r="I1158" s="19">
-        <v>46997</v>
+        <v>46967</v>
       </c>
     </row>
     <row r="1159" spans="1:9" x14ac:dyDescent="0.25">
@@ -38369,10 +38372,10 @@
         <v>3331</v>
       </c>
       <c r="H1170" s="19">
-        <v>7181</v>
+        <v>7177</v>
       </c>
       <c r="I1170" s="19">
-        <v>47402</v>
+        <v>47398</v>
       </c>
     </row>
     <row r="1171" spans="1:9" x14ac:dyDescent="0.25">
@@ -38412,7 +38415,7 @@
         <v>5594</v>
       </c>
       <c r="C1172" s="19">
-        <v>24345</v>
+        <v>24344</v>
       </c>
       <c r="D1172" s="19">
         <v>4352</v>
@@ -38430,7 +38433,7 @@
         <v>2121</v>
       </c>
       <c r="I1172" s="19">
-        <v>27092</v>
+        <v>27091</v>
       </c>
     </row>
     <row r="1173" spans="1:9" x14ac:dyDescent="0.25">
@@ -38485,10 +38488,10 @@
         <v>3411</v>
       </c>
       <c r="H1174" s="19">
-        <v>6633</v>
+        <v>6628</v>
       </c>
       <c r="I1174" s="19">
-        <v>58000</v>
+        <v>57995</v>
       </c>
     </row>
     <row r="1175" spans="1:9" x14ac:dyDescent="0.25">
@@ -38557,10 +38560,10 @@
         <v>7785</v>
       </c>
       <c r="C1177" s="19">
-        <v>33150</v>
+        <v>33143</v>
       </c>
       <c r="D1177" s="19">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="E1177" s="18">
         <v>332</v>
@@ -38575,7 +38578,7 @@
         <v>7763</v>
       </c>
       <c r="I1177" s="19">
-        <v>42033</v>
+        <v>42026</v>
       </c>
     </row>
     <row r="1178" spans="1:9" x14ac:dyDescent="0.25">
@@ -38662,7 +38665,7 @@
         <v>7000</v>
       </c>
       <c r="I1180" s="19">
-        <v>51180</v>
+        <v>51179</v>
       </c>
     </row>
     <row r="1181" spans="1:9" x14ac:dyDescent="0.25">
@@ -38691,7 +38694,7 @@
         <v>5038</v>
       </c>
       <c r="I1181" s="19">
-        <v>33962</v>
+        <v>33961</v>
       </c>
     </row>
     <row r="1182" spans="1:9" x14ac:dyDescent="0.25">
@@ -38818,7 +38821,7 @@
         <v>9438</v>
       </c>
       <c r="C1186" s="19">
-        <v>35791</v>
+        <v>35790</v>
       </c>
       <c r="D1186" s="19">
         <v>3792</v>
@@ -38836,7 +38839,7 @@
         <v>12484</v>
       </c>
       <c r="I1186" s="19">
-        <v>49292</v>
+        <v>49291</v>
       </c>
     </row>
     <row r="1187" spans="1:9" x14ac:dyDescent="0.25">
@@ -38894,7 +38897,7 @@
         <v>5610</v>
       </c>
       <c r="I1188" s="19">
-        <v>59185</v>
+        <v>59184</v>
       </c>
     </row>
     <row r="1189" spans="1:9" x14ac:dyDescent="0.25">
@@ -38989,13 +38992,13 @@
         <v>1196</v>
       </c>
       <c r="B1192" s="19">
-        <v>12845</v>
+        <v>12792</v>
       </c>
       <c r="C1192" s="19">
-        <v>52049</v>
+        <v>51824</v>
       </c>
       <c r="D1192" s="19">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="E1192" s="18">
         <v>99</v>
@@ -39010,7 +39013,7 @@
         <v>4925</v>
       </c>
       <c r="I1192" s="19">
-        <v>57532</v>
+        <v>57307</v>
       </c>
     </row>
     <row r="1193" spans="1:9" x14ac:dyDescent="0.25">
@@ -39137,7 +39140,7 @@
         <v>8112</v>
       </c>
       <c r="C1197" s="19">
-        <v>39140</v>
+        <v>39139</v>
       </c>
       <c r="D1197" s="19">
         <v>4825</v>
@@ -39213,7 +39216,7 @@
         <v>19083</v>
       </c>
       <c r="I1199" s="19">
-        <v>64238</v>
+        <v>64237</v>
       </c>
     </row>
     <row r="1200" spans="1:9" x14ac:dyDescent="0.25">
@@ -39239,10 +39242,10 @@
         <v>5782</v>
       </c>
       <c r="H1200" s="19">
-        <v>5284</v>
+        <v>5283</v>
       </c>
       <c r="I1200" s="19">
-        <v>26580</v>
+        <v>26579</v>
       </c>
     </row>
     <row r="1201" spans="1:9" x14ac:dyDescent="0.25">
@@ -39282,10 +39285,10 @@
         <v>17321</v>
       </c>
       <c r="C1202" s="19">
-        <v>73931</v>
+        <v>73909</v>
       </c>
       <c r="D1202" s="19">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="E1202" s="18">
         <v>419</v>
@@ -39300,7 +39303,7 @@
         <v>10842</v>
       </c>
       <c r="I1202" s="19">
-        <v>86659</v>
+        <v>86637</v>
       </c>
     </row>
     <row r="1203" spans="1:9" x14ac:dyDescent="0.25">
@@ -39326,10 +39329,10 @@
         <v>4514</v>
       </c>
       <c r="H1203" s="19">
-        <v>13735</v>
+        <v>13734</v>
       </c>
       <c r="I1203" s="19">
-        <v>47151</v>
+        <v>47150</v>
       </c>
     </row>
     <row r="1204" spans="1:9" x14ac:dyDescent="0.25">
@@ -39369,7 +39372,7 @@
         <v>10715</v>
       </c>
       <c r="C1205" s="19">
-        <v>45672</v>
+        <v>45665</v>
       </c>
       <c r="D1205" s="19">
         <v>4262</v>
@@ -39387,7 +39390,7 @@
         <v>7927</v>
       </c>
       <c r="I1205" s="19">
-        <v>54708</v>
+        <v>54701</v>
       </c>
     </row>
     <row r="1206" spans="1:9" x14ac:dyDescent="0.25">
@@ -39569,13 +39572,13 @@
         <v>1216</v>
       </c>
       <c r="B1212" s="19">
-        <v>14637</v>
+        <v>14602</v>
       </c>
       <c r="C1212" s="19">
-        <v>65994</v>
+        <v>65855</v>
       </c>
       <c r="D1212" s="19">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="E1212" s="18">
         <v>396</v>
@@ -39590,7 +39593,7 @@
         <v>8640</v>
       </c>
       <c r="I1212" s="19">
-        <v>76804</v>
+        <v>76666</v>
       </c>
     </row>
     <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
@@ -39619,7 +39622,7 @@
         <v>9513</v>
       </c>
       <c r="I1213" s="19">
-        <v>72099</v>
+        <v>72098</v>
       </c>
     </row>
     <row r="1214" spans="1:9" x14ac:dyDescent="0.25">
@@ -39685,28 +39688,28 @@
         <v>1220</v>
       </c>
       <c r="B1216" s="19">
-        <v>7658</v>
+        <v>7536</v>
       </c>
       <c r="C1216" s="19">
-        <v>36406</v>
+        <v>35614</v>
       </c>
       <c r="D1216" s="19">
-        <v>4754</v>
+        <v>4726</v>
       </c>
       <c r="E1216" s="18">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="F1216" s="19">
-        <v>1367</v>
+        <v>1255</v>
       </c>
       <c r="G1216" s="19">
-        <v>4966</v>
+        <v>4965</v>
       </c>
       <c r="H1216" s="19">
-        <v>12094</v>
+        <v>12080</v>
       </c>
       <c r="I1216" s="19">
-        <v>49867</v>
+        <v>48949</v>
       </c>
     </row>
     <row r="1217" spans="1:9" x14ac:dyDescent="0.25">
@@ -39714,28 +39717,28 @@
         <v>1221</v>
       </c>
       <c r="B1217" s="19">
-        <v>8073</v>
+        <v>8848</v>
       </c>
       <c r="C1217" s="19">
-        <v>38076</v>
+        <v>41948</v>
       </c>
       <c r="D1217" s="19">
-        <v>4717</v>
+        <v>4741</v>
       </c>
       <c r="E1217" s="18">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="F1217" s="19">
-        <v>1369</v>
+        <v>1708</v>
       </c>
       <c r="G1217" s="19">
-        <v>5243</v>
+        <v>5207</v>
       </c>
       <c r="H1217" s="19">
-        <v>9357</v>
+        <v>17076</v>
       </c>
       <c r="I1217" s="19">
-        <v>48802</v>
+        <v>60732</v>
       </c>
     </row>
     <row r="1218" spans="1:9" x14ac:dyDescent="0.25">
@@ -39743,42 +39746,71 @@
         <v>1222</v>
       </c>
       <c r="B1218" s="19">
-        <v>6481</v>
+        <v>8899</v>
       </c>
       <c r="C1218" s="19">
-        <v>30651</v>
+        <v>39999</v>
       </c>
       <c r="D1218" s="19">
-        <v>4729</v>
+        <v>4495</v>
       </c>
       <c r="E1218" s="18">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="F1218" s="18">
-        <v>695</v>
+        <v>820</v>
       </c>
       <c r="G1218" s="19">
-        <v>4326</v>
+        <v>4482</v>
       </c>
       <c r="H1218" s="19">
-        <v>5099</v>
+        <v>6544</v>
       </c>
       <c r="I1218" s="19">
-        <v>36445</v>
+        <v>47363</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1219" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1219" s="19">
+        <v>7715</v>
+      </c>
+      <c r="C1219" s="19">
+        <v>38462</v>
+      </c>
+      <c r="D1219" s="19">
+        <v>4985</v>
+      </c>
+      <c r="E1219" s="18">
+        <v>108</v>
+      </c>
+      <c r="F1219" s="18">
+        <v>476</v>
+      </c>
+      <c r="G1219" s="19">
+        <v>4406</v>
+      </c>
+      <c r="H1219" s="19">
+        <v>4491</v>
+      </c>
+      <c r="I1219" s="19">
+        <v>43430</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4714AEE-07DD-4B3A-98BD-23147F8D8499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6693A7C-06F0-48AC-954A-350B1D0C2979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1225">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3709,6 +3709,9 @@
   </si>
   <si>
     <t>23/03/2025 al 29/03/2025</t>
+  </si>
+  <si>
+    <t>30/03/2025 al 05/04/2025</t>
   </si>
 </sst>
 </file>
@@ -3954,13 +3957,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4283,11 +4286,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1219"/>
+  <dimension ref="A1:P1220"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1219" sqref="F1219"/>
+      <pane ySplit="6" topLeftCell="A1215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1219" sqref="K1219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4397,11 +4400,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4415,28 +4418,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4446,14 +4449,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -37922,10 +37925,10 @@
         <v>12378</v>
       </c>
       <c r="C1155" s="19">
-        <v>48817</v>
+        <v>48813</v>
       </c>
       <c r="D1155" s="19">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="E1155" s="18">
         <v>329</v>
@@ -37940,7 +37943,7 @@
         <v>7344</v>
       </c>
       <c r="I1155" s="19">
-        <v>57534</v>
+        <v>57530</v>
       </c>
     </row>
     <row r="1156" spans="1:9" x14ac:dyDescent="0.25">
@@ -38096,10 +38099,10 @@
         <v>10504</v>
       </c>
       <c r="C1161" s="19">
-        <v>43959</v>
+        <v>43950</v>
       </c>
       <c r="D1161" s="19">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="E1161" s="18">
         <v>359</v>
@@ -38114,7 +38117,7 @@
         <v>5597</v>
       </c>
       <c r="I1161" s="19">
-        <v>50833</v>
+        <v>50825</v>
       </c>
     </row>
     <row r="1162" spans="1:9" x14ac:dyDescent="0.25">
@@ -38386,10 +38389,10 @@
         <v>13076</v>
       </c>
       <c r="C1171" s="19">
-        <v>48949</v>
+        <v>48944</v>
       </c>
       <c r="D1171" s="19">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="E1171" s="18">
         <v>199</v>
@@ -38404,7 +38407,7 @@
         <v>9786</v>
       </c>
       <c r="I1171" s="19">
-        <v>59426</v>
+        <v>59421</v>
       </c>
     </row>
     <row r="1172" spans="1:9" x14ac:dyDescent="0.25">
@@ -38578,7 +38581,7 @@
         <v>7763</v>
       </c>
       <c r="I1177" s="19">
-        <v>42026</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="1178" spans="1:9" x14ac:dyDescent="0.25">
@@ -38589,7 +38592,7 @@
         <v>12128</v>
       </c>
       <c r="C1178" s="19">
-        <v>48819</v>
+        <v>48815</v>
       </c>
       <c r="D1178" s="19">
         <v>4025</v>
@@ -38607,7 +38610,7 @@
         <v>7100</v>
       </c>
       <c r="I1178" s="19">
-        <v>56829</v>
+        <v>56825</v>
       </c>
     </row>
     <row r="1179" spans="1:9" x14ac:dyDescent="0.25">
@@ -38644,13 +38647,13 @@
         <v>1184</v>
       </c>
       <c r="B1180" s="19">
-        <v>10864</v>
+        <v>10827</v>
       </c>
       <c r="C1180" s="19">
-        <v>43752</v>
+        <v>43667</v>
       </c>
       <c r="D1180" s="19">
-        <v>4027</v>
+        <v>4033</v>
       </c>
       <c r="E1180" s="18">
         <v>96</v>
@@ -38665,7 +38668,7 @@
         <v>7000</v>
       </c>
       <c r="I1180" s="19">
-        <v>51179</v>
+        <v>51095</v>
       </c>
     </row>
     <row r="1181" spans="1:9" x14ac:dyDescent="0.25">
@@ -38705,10 +38708,10 @@
         <v>8774</v>
       </c>
       <c r="C1182" s="19">
-        <v>40884</v>
+        <v>40877</v>
       </c>
       <c r="D1182" s="19">
-        <v>4660</v>
+        <v>4659</v>
       </c>
       <c r="E1182" s="18">
         <v>214</v>
@@ -38723,7 +38726,7 @@
         <v>8413</v>
       </c>
       <c r="I1182" s="19">
-        <v>50233</v>
+        <v>50226</v>
       </c>
     </row>
     <row r="1183" spans="1:9" x14ac:dyDescent="0.25">
@@ -38952,10 +38955,10 @@
         <v>4702</v>
       </c>
       <c r="H1190" s="19">
-        <v>6402</v>
+        <v>6397</v>
       </c>
       <c r="I1190" s="19">
-        <v>37849</v>
+        <v>37844</v>
       </c>
     </row>
     <row r="1191" spans="1:9" x14ac:dyDescent="0.25">
@@ -39111,7 +39114,7 @@
         <v>9558</v>
       </c>
       <c r="C1196" s="19">
-        <v>40662</v>
+        <v>40659</v>
       </c>
       <c r="D1196" s="19">
         <v>4254</v>
@@ -39129,7 +39132,7 @@
         <v>6311</v>
       </c>
       <c r="I1196" s="19">
-        <v>48728</v>
+        <v>48726</v>
       </c>
     </row>
     <row r="1197" spans="1:9" x14ac:dyDescent="0.25">
@@ -39329,10 +39332,10 @@
         <v>4514</v>
       </c>
       <c r="H1203" s="19">
-        <v>13734</v>
+        <v>13732</v>
       </c>
       <c r="I1203" s="19">
-        <v>47150</v>
+        <v>47149</v>
       </c>
     </row>
     <row r="1204" spans="1:9" x14ac:dyDescent="0.25">
@@ -39488,7 +39491,7 @@
         <v>7445</v>
       </c>
       <c r="C1209" s="19">
-        <v>34523</v>
+        <v>34521</v>
       </c>
       <c r="D1209" s="19">
         <v>4637</v>
@@ -39506,7 +39509,7 @@
         <v>4837</v>
       </c>
       <c r="I1209" s="19">
-        <v>41150</v>
+        <v>41148</v>
       </c>
     </row>
     <row r="1210" spans="1:9" x14ac:dyDescent="0.25">
@@ -39517,10 +39520,10 @@
         <v>7934</v>
       </c>
       <c r="C1210" s="19">
-        <v>38367</v>
+        <v>38366</v>
       </c>
       <c r="D1210" s="19">
-        <v>4836</v>
+        <v>4835</v>
       </c>
       <c r="E1210" s="18">
         <v>305</v>
@@ -39535,7 +39538,7 @@
         <v>5730</v>
       </c>
       <c r="I1210" s="19">
-        <v>45734</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="1211" spans="1:9" x14ac:dyDescent="0.25">
@@ -39561,10 +39564,10 @@
         <v>5197</v>
       </c>
       <c r="H1211" s="19">
-        <v>10622</v>
+        <v>10674</v>
       </c>
       <c r="I1211" s="19">
-        <v>57836</v>
+        <v>57889</v>
       </c>
     </row>
     <row r="1212" spans="1:9" x14ac:dyDescent="0.25">
@@ -39575,7 +39578,7 @@
         <v>14602</v>
       </c>
       <c r="C1212" s="19">
-        <v>65855</v>
+        <v>65854</v>
       </c>
       <c r="D1212" s="19">
         <v>4510</v>
@@ -39590,10 +39593,10 @@
         <v>5484</v>
       </c>
       <c r="H1212" s="19">
-        <v>8640</v>
+        <v>8638</v>
       </c>
       <c r="I1212" s="19">
-        <v>76666</v>
+        <v>76663</v>
       </c>
     </row>
     <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
@@ -39619,7 +39622,7 @@
         <v>4026</v>
       </c>
       <c r="H1213" s="19">
-        <v>9513</v>
+        <v>9512</v>
       </c>
       <c r="I1213" s="19">
         <v>72098</v>
@@ -39688,28 +39691,28 @@
         <v>1220</v>
       </c>
       <c r="B1216" s="19">
-        <v>7536</v>
+        <v>7605</v>
       </c>
       <c r="C1216" s="19">
-        <v>35614</v>
+        <v>35980</v>
       </c>
       <c r="D1216" s="19">
-        <v>4726</v>
+        <v>4731</v>
       </c>
       <c r="E1216" s="18">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="F1216" s="19">
-        <v>1255</v>
+        <v>1098</v>
       </c>
       <c r="G1216" s="19">
-        <v>4965</v>
+        <v>4777</v>
       </c>
       <c r="H1216" s="19">
         <v>12080</v>
       </c>
       <c r="I1216" s="19">
-        <v>48949</v>
+        <v>49158</v>
       </c>
     </row>
     <row r="1217" spans="1:9" x14ac:dyDescent="0.25">
@@ -39717,28 +39720,28 @@
         <v>1221</v>
       </c>
       <c r="B1217" s="19">
-        <v>8848</v>
+        <v>8924</v>
       </c>
       <c r="C1217" s="19">
-        <v>41948</v>
+        <v>42449</v>
       </c>
       <c r="D1217" s="19">
-        <v>4741</v>
+        <v>4756</v>
       </c>
       <c r="E1217" s="18">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="F1217" s="19">
-        <v>1708</v>
+        <v>1867</v>
       </c>
       <c r="G1217" s="19">
-        <v>5207</v>
+        <v>5323</v>
       </c>
       <c r="H1217" s="19">
-        <v>17076</v>
+        <v>18259</v>
       </c>
       <c r="I1217" s="19">
-        <v>60732</v>
+        <v>62575</v>
       </c>
     </row>
     <row r="1218" spans="1:9" x14ac:dyDescent="0.25">
@@ -39746,28 +39749,28 @@
         <v>1222</v>
       </c>
       <c r="B1218" s="19">
-        <v>8899</v>
+        <v>9251</v>
       </c>
       <c r="C1218" s="19">
-        <v>39999</v>
+        <v>42552</v>
       </c>
       <c r="D1218" s="19">
-        <v>4495</v>
+        <v>4600</v>
       </c>
       <c r="E1218" s="18">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="F1218" s="18">
-        <v>820</v>
+        <v>762</v>
       </c>
       <c r="G1218" s="19">
-        <v>4482</v>
+        <v>4716</v>
       </c>
       <c r="H1218" s="19">
-        <v>6544</v>
+        <v>6723</v>
       </c>
       <c r="I1218" s="19">
-        <v>47363</v>
+        <v>50037</v>
       </c>
     </row>
     <row r="1219" spans="1:9" x14ac:dyDescent="0.25">
@@ -39775,42 +39778,71 @@
         <v>1223</v>
       </c>
       <c r="B1219" s="19">
-        <v>7715</v>
+        <v>12008</v>
       </c>
       <c r="C1219" s="19">
-        <v>38462</v>
+        <v>57437</v>
       </c>
       <c r="D1219" s="19">
-        <v>4985</v>
+        <v>4783</v>
       </c>
       <c r="E1219" s="18">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="F1219" s="18">
-        <v>476</v>
+        <v>600</v>
       </c>
       <c r="G1219" s="19">
-        <v>4406</v>
+        <v>3777</v>
       </c>
       <c r="H1219" s="19">
-        <v>4491</v>
+        <v>9843</v>
       </c>
       <c r="I1219" s="19">
-        <v>43430</v>
+        <v>67880</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1220" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1220" s="19">
+        <v>7519</v>
+      </c>
+      <c r="C1220" s="19">
+        <v>36395</v>
+      </c>
+      <c r="D1220" s="19">
+        <v>4841</v>
+      </c>
+      <c r="E1220" s="18">
+        <v>247</v>
+      </c>
+      <c r="F1220" s="19">
+        <v>1367</v>
+      </c>
+      <c r="G1220" s="19">
+        <v>5538</v>
+      </c>
+      <c r="H1220" s="19">
+        <v>3163</v>
+      </c>
+      <c r="I1220" s="19">
+        <v>40925</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6693A7C-06F0-48AC-954A-350B1D0C2979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6B02F2-5BE1-451A-B858-7EFF8474CF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1227">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3712,6 +3712,12 @@
   </si>
   <si>
     <t>30/03/2025 al 05/04/2025</t>
+  </si>
+  <si>
+    <t>06/04/2025 al 12/04/2025</t>
+  </si>
+  <si>
+    <t>13/04/2025 al 19/04/2025</t>
   </si>
 </sst>
 </file>
@@ -3957,13 +3963,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4286,11 +4292,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1220"/>
+  <dimension ref="A1:P1222"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1219" sqref="K1219"/>
+      <pane ySplit="6" topLeftCell="A1217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1222" sqref="K1222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4400,11 +4406,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4418,28 +4424,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4449,14 +4455,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -38897,10 +38903,10 @@
         <v>4532</v>
       </c>
       <c r="H1188" s="19">
-        <v>5610</v>
+        <v>5596</v>
       </c>
       <c r="I1188" s="19">
-        <v>59184</v>
+        <v>59170</v>
       </c>
     </row>
     <row r="1189" spans="1:9" x14ac:dyDescent="0.25">
@@ -39071,10 +39077,10 @@
         <v>3607</v>
       </c>
       <c r="H1194" s="19">
-        <v>11635</v>
+        <v>11915</v>
       </c>
       <c r="I1194" s="19">
-        <v>59023</v>
+        <v>59303</v>
       </c>
     </row>
     <row r="1195" spans="1:9" x14ac:dyDescent="0.25">
@@ -39129,10 +39135,10 @@
         <v>3473</v>
       </c>
       <c r="H1196" s="19">
-        <v>6311</v>
+        <v>6367</v>
       </c>
       <c r="I1196" s="19">
-        <v>48726</v>
+        <v>48783</v>
       </c>
     </row>
     <row r="1197" spans="1:9" x14ac:dyDescent="0.25">
@@ -39256,10 +39262,10 @@
         <v>1205</v>
       </c>
       <c r="B1201" s="19">
-        <v>14094</v>
+        <v>14086</v>
       </c>
       <c r="C1201" s="19">
-        <v>69617</v>
+        <v>69580</v>
       </c>
       <c r="D1201" s="19">
         <v>4940</v>
@@ -39277,7 +39283,7 @@
         <v>7795</v>
       </c>
       <c r="I1201" s="19">
-        <v>79038</v>
+        <v>79002</v>
       </c>
     </row>
     <row r="1202" spans="1:9" x14ac:dyDescent="0.25">
@@ -39285,10 +39291,10 @@
         <v>1206</v>
       </c>
       <c r="B1202" s="19">
-        <v>17321</v>
+        <v>17313</v>
       </c>
       <c r="C1202" s="19">
-        <v>73909</v>
+        <v>73870</v>
       </c>
       <c r="D1202" s="19">
         <v>4267</v>
@@ -39306,7 +39312,7 @@
         <v>10842</v>
       </c>
       <c r="I1202" s="19">
-        <v>86637</v>
+        <v>86598</v>
       </c>
     </row>
     <row r="1203" spans="1:9" x14ac:dyDescent="0.25">
@@ -39314,13 +39320,13 @@
         <v>1207</v>
       </c>
       <c r="B1203" s="19">
-        <v>7307</v>
+        <v>7282</v>
       </c>
       <c r="C1203" s="19">
-        <v>32346</v>
+        <v>32225</v>
       </c>
       <c r="D1203" s="19">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="E1203" s="18">
         <v>237</v>
@@ -39335,7 +39341,7 @@
         <v>13732</v>
       </c>
       <c r="I1203" s="19">
-        <v>47149</v>
+        <v>47029</v>
       </c>
     </row>
     <row r="1204" spans="1:9" x14ac:dyDescent="0.25">
@@ -39749,28 +39755,28 @@
         <v>1222</v>
       </c>
       <c r="B1218" s="19">
-        <v>9251</v>
+        <v>9344</v>
       </c>
       <c r="C1218" s="19">
-        <v>42552</v>
+        <v>42697</v>
       </c>
       <c r="D1218" s="19">
-        <v>4600</v>
+        <v>4569</v>
       </c>
       <c r="E1218" s="18">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F1218" s="18">
-        <v>762</v>
+        <v>617</v>
       </c>
       <c r="G1218" s="19">
-        <v>4716</v>
+        <v>4431</v>
       </c>
       <c r="H1218" s="19">
-        <v>6723</v>
+        <v>6878</v>
       </c>
       <c r="I1218" s="19">
-        <v>50037</v>
+        <v>50192</v>
       </c>
     </row>
     <row r="1219" spans="1:9" x14ac:dyDescent="0.25">
@@ -39778,28 +39784,28 @@
         <v>1223</v>
       </c>
       <c r="B1219" s="19">
-        <v>12008</v>
+        <v>12295</v>
       </c>
       <c r="C1219" s="19">
-        <v>57437</v>
+        <v>57680</v>
       </c>
       <c r="D1219" s="19">
-        <v>4783</v>
+        <v>4691</v>
       </c>
       <c r="E1219" s="18">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="F1219" s="18">
-        <v>600</v>
+        <v>755</v>
       </c>
       <c r="G1219" s="19">
-        <v>3777</v>
+        <v>4118</v>
       </c>
       <c r="H1219" s="19">
-        <v>9843</v>
+        <v>10161</v>
       </c>
       <c r="I1219" s="19">
-        <v>67880</v>
+        <v>68596</v>
       </c>
     </row>
     <row r="1220" spans="1:9" x14ac:dyDescent="0.25">
@@ -39807,42 +39813,100 @@
         <v>1224</v>
       </c>
       <c r="B1220" s="19">
-        <v>7519</v>
+        <v>9943</v>
       </c>
       <c r="C1220" s="19">
-        <v>36395</v>
+        <v>48522</v>
       </c>
       <c r="D1220" s="19">
-        <v>4841</v>
+        <v>4880</v>
       </c>
       <c r="E1220" s="18">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="F1220" s="19">
-        <v>1367</v>
+        <v>1223</v>
       </c>
       <c r="G1220" s="19">
-        <v>5538</v>
+        <v>5608</v>
       </c>
       <c r="H1220" s="19">
-        <v>3163</v>
+        <v>3242</v>
       </c>
       <c r="I1220" s="19">
-        <v>40925</v>
+        <v>52987</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1221" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1221" s="19">
+        <v>10134</v>
+      </c>
+      <c r="C1221" s="19">
+        <v>46633</v>
+      </c>
+      <c r="D1221" s="19">
+        <v>4602</v>
+      </c>
+      <c r="E1221" s="18">
+        <v>246</v>
+      </c>
+      <c r="F1221" s="19">
+        <v>1052</v>
+      </c>
+      <c r="G1221" s="19">
+        <v>4276</v>
+      </c>
+      <c r="H1221" s="19">
+        <v>7205</v>
+      </c>
+      <c r="I1221" s="19">
+        <v>54891</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1222" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1222" s="19">
+        <v>2274</v>
+      </c>
+      <c r="C1222" s="19">
+        <v>10505</v>
+      </c>
+      <c r="D1222" s="19">
+        <v>4620</v>
+      </c>
+      <c r="E1222" s="18">
+        <v>39</v>
+      </c>
+      <c r="F1222" s="18">
+        <v>292</v>
+      </c>
+      <c r="G1222" s="19">
+        <v>7573</v>
+      </c>
+      <c r="H1222" s="19">
+        <v>2084</v>
+      </c>
+      <c r="I1222" s="19">
+        <v>12881</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6B02F2-5BE1-451A-B858-7EFF8474CF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67694FE-41E5-40DD-8E09-D464046C551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1228">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3718,6 +3718,9 @@
   </si>
   <si>
     <t>13/04/2025 al 19/04/2025</t>
+  </si>
+  <si>
+    <t>20/04/2025 al 26/04/2025</t>
   </si>
 </sst>
 </file>
@@ -3963,13 +3966,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4292,11 +4295,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1222"/>
+  <dimension ref="A1:P1223"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1222" sqref="K1222"/>
+      <pane ySplit="6" topLeftCell="A1218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1221" sqref="K1221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4406,11 +4409,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4424,28 +4427,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4455,14 +4458,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -38453,10 +38456,10 @@
         <v>9678</v>
       </c>
       <c r="C1173" s="19">
-        <v>40206</v>
+        <v>40179</v>
       </c>
       <c r="D1173" s="19">
-        <v>4154</v>
+        <v>4152</v>
       </c>
       <c r="E1173" s="18">
         <v>440</v>
@@ -38471,7 +38474,7 @@
         <v>18478</v>
       </c>
       <c r="I1173" s="19">
-        <v>60079</v>
+        <v>60051</v>
       </c>
     </row>
     <row r="1174" spans="1:9" x14ac:dyDescent="0.25">
@@ -38569,7 +38572,7 @@
         <v>7785</v>
       </c>
       <c r="C1177" s="19">
-        <v>33143</v>
+        <v>33140</v>
       </c>
       <c r="D1177" s="19">
         <v>4257</v>
@@ -38587,7 +38590,7 @@
         <v>7763</v>
       </c>
       <c r="I1177" s="19">
-        <v>42025</v>
+        <v>42023</v>
       </c>
     </row>
     <row r="1178" spans="1:9" x14ac:dyDescent="0.25">
@@ -39106,10 +39109,10 @@
         <v>4459</v>
       </c>
       <c r="H1195" s="19">
-        <v>7696</v>
+        <v>7804</v>
       </c>
       <c r="I1195" s="19">
-        <v>46756</v>
+        <v>46862</v>
       </c>
     </row>
     <row r="1196" spans="1:9" x14ac:dyDescent="0.25">
@@ -39135,10 +39138,10 @@
         <v>3473</v>
       </c>
       <c r="H1196" s="19">
-        <v>6367</v>
+        <v>6505</v>
       </c>
       <c r="I1196" s="19">
-        <v>48783</v>
+        <v>48921</v>
       </c>
     </row>
     <row r="1197" spans="1:9" x14ac:dyDescent="0.25">
@@ -39149,10 +39152,10 @@
         <v>8112</v>
       </c>
       <c r="C1197" s="19">
-        <v>39139</v>
+        <v>39075</v>
       </c>
       <c r="D1197" s="19">
-        <v>4825</v>
+        <v>4817</v>
       </c>
       <c r="E1197" s="18">
         <v>190</v>
@@ -39167,7 +39170,7 @@
         <v>5107</v>
       </c>
       <c r="I1197" s="19">
-        <v>45170</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="1198" spans="1:9" x14ac:dyDescent="0.25">
@@ -39352,7 +39355,7 @@
         <v>9824</v>
       </c>
       <c r="C1204" s="19">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="D1204" s="19">
         <v>4673</v>
@@ -39370,7 +39373,7 @@
         <v>6036</v>
       </c>
       <c r="I1204" s="19">
-        <v>52857</v>
+        <v>52856</v>
       </c>
     </row>
     <row r="1205" spans="1:9" x14ac:dyDescent="0.25">
@@ -39468,7 +39471,7 @@
         <v>8772</v>
       </c>
       <c r="C1208" s="19">
-        <v>39766</v>
+        <v>39764</v>
       </c>
       <c r="D1208" s="19">
         <v>4533</v>
@@ -39486,7 +39489,7 @@
         <v>5998</v>
       </c>
       <c r="I1208" s="19">
-        <v>47586</v>
+        <v>47585</v>
       </c>
     </row>
     <row r="1209" spans="1:9" x14ac:dyDescent="0.25">
@@ -39584,7 +39587,7 @@
         <v>14602</v>
       </c>
       <c r="C1212" s="19">
-        <v>65854</v>
+        <v>65853</v>
       </c>
       <c r="D1212" s="19">
         <v>4510</v>
@@ -39602,7 +39605,7 @@
         <v>8638</v>
       </c>
       <c r="I1212" s="19">
-        <v>76663</v>
+        <v>76662</v>
       </c>
     </row>
     <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
@@ -39613,7 +39616,7 @@
         <v>13448</v>
       </c>
       <c r="C1213" s="19">
-        <v>60868</v>
+        <v>60867</v>
       </c>
       <c r="D1213" s="19">
         <v>4526</v>
@@ -39631,7 +39634,7 @@
         <v>9512</v>
       </c>
       <c r="I1213" s="19">
-        <v>72098</v>
+        <v>72097</v>
       </c>
     </row>
     <row r="1214" spans="1:9" x14ac:dyDescent="0.25">
@@ -39784,28 +39787,28 @@
         <v>1223</v>
       </c>
       <c r="B1219" s="19">
-        <v>12295</v>
+        <v>12225</v>
       </c>
       <c r="C1219" s="19">
-        <v>57680</v>
+        <v>57358</v>
       </c>
       <c r="D1219" s="19">
-        <v>4691</v>
+        <v>4692</v>
       </c>
       <c r="E1219" s="18">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F1219" s="18">
-        <v>755</v>
+        <v>673</v>
       </c>
       <c r="G1219" s="19">
-        <v>4118</v>
+        <v>4040</v>
       </c>
       <c r="H1219" s="19">
-        <v>10161</v>
+        <v>10151</v>
       </c>
       <c r="I1219" s="19">
-        <v>68596</v>
+        <v>68183</v>
       </c>
     </row>
     <row r="1220" spans="1:9" x14ac:dyDescent="0.25">
@@ -39813,13 +39816,13 @@
         <v>1224</v>
       </c>
       <c r="B1220" s="19">
-        <v>9943</v>
+        <v>10014</v>
       </c>
       <c r="C1220" s="19">
-        <v>48522</v>
+        <v>48645</v>
       </c>
       <c r="D1220" s="19">
-        <v>4880</v>
+        <v>4858</v>
       </c>
       <c r="E1220" s="18">
         <v>218</v>
@@ -39831,10 +39834,10 @@
         <v>5608</v>
       </c>
       <c r="H1220" s="19">
-        <v>3242</v>
+        <v>3283</v>
       </c>
       <c r="I1220" s="19">
-        <v>52987</v>
+        <v>53150</v>
       </c>
     </row>
     <row r="1221" spans="1:9" x14ac:dyDescent="0.25">
@@ -39842,28 +39845,28 @@
         <v>1225</v>
       </c>
       <c r="B1221" s="19">
-        <v>10134</v>
+        <v>10715</v>
       </c>
       <c r="C1221" s="19">
-        <v>46633</v>
+        <v>49187</v>
       </c>
       <c r="D1221" s="19">
-        <v>4602</v>
+        <v>4590</v>
       </c>
       <c r="E1221" s="18">
-        <v>246</v>
+        <v>337</v>
       </c>
       <c r="F1221" s="19">
-        <v>1052</v>
+        <v>1506</v>
       </c>
       <c r="G1221" s="19">
-        <v>4276</v>
+        <v>4471</v>
       </c>
       <c r="H1221" s="19">
-        <v>7205</v>
+        <v>7859</v>
       </c>
       <c r="I1221" s="19">
-        <v>54891</v>
+        <v>58552</v>
       </c>
     </row>
     <row r="1222" spans="1:9" x14ac:dyDescent="0.25">
@@ -39871,42 +39874,71 @@
         <v>1226</v>
       </c>
       <c r="B1222" s="19">
-        <v>2274</v>
+        <v>5154</v>
       </c>
       <c r="C1222" s="19">
-        <v>10505</v>
+        <v>22809</v>
       </c>
       <c r="D1222" s="19">
-        <v>4620</v>
+        <v>4425</v>
       </c>
       <c r="E1222" s="18">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F1222" s="18">
-        <v>292</v>
+        <v>521</v>
       </c>
       <c r="G1222" s="19">
-        <v>7573</v>
+        <v>6579</v>
       </c>
       <c r="H1222" s="19">
-        <v>2084</v>
+        <v>3500</v>
       </c>
       <c r="I1222" s="19">
-        <v>12881</v>
+        <v>26830</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1223" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1223" s="19">
+        <v>7554</v>
+      </c>
+      <c r="C1223" s="19">
+        <v>42360</v>
+      </c>
+      <c r="D1223" s="19">
+        <v>5608</v>
+      </c>
+      <c r="E1223" s="18">
+        <v>74</v>
+      </c>
+      <c r="F1223" s="18">
+        <v>399</v>
+      </c>
+      <c r="G1223" s="19">
+        <v>5395</v>
+      </c>
+      <c r="H1223" s="19">
+        <v>5528</v>
+      </c>
+      <c r="I1223" s="19">
+        <v>48287</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67694FE-41E5-40DD-8E09-D464046C551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD5AEBB-A6BD-4DE6-8B13-B0F048BBBCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="1229">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3721,6 +3721,9 @@
   </si>
   <si>
     <t>20/04/2025 al 26/04/2025</t>
+  </si>
+  <si>
+    <t>27/04/2025 al 03/05/2025</t>
   </si>
 </sst>
 </file>
@@ -3966,13 +3969,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4295,11 +4298,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1223"/>
+  <dimension ref="A1:P1224"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1221" sqref="K1221"/>
+      <pane ySplit="6" topLeftCell="A1219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1223" sqref="M1223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4409,11 +4412,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4427,28 +4430,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4458,14 +4461,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -39428,10 +39431,10 @@
         <v>4947</v>
       </c>
       <c r="H1206" s="19">
-        <v>9264</v>
+        <v>9287</v>
       </c>
       <c r="I1206" s="19">
-        <v>49030</v>
+        <v>49053</v>
       </c>
     </row>
     <row r="1207" spans="1:9" x14ac:dyDescent="0.25">
@@ -39457,10 +39460,10 @@
         <v>5233</v>
       </c>
       <c r="H1207" s="19">
-        <v>6228</v>
+        <v>6256</v>
       </c>
       <c r="I1207" s="19">
-        <v>48984</v>
+        <v>49013</v>
       </c>
     </row>
     <row r="1208" spans="1:9" x14ac:dyDescent="0.25">
@@ -39486,10 +39489,10 @@
         <v>6915</v>
       </c>
       <c r="H1208" s="19">
-        <v>5998</v>
+        <v>6012</v>
       </c>
       <c r="I1208" s="19">
-        <v>47585</v>
+        <v>47598</v>
       </c>
     </row>
     <row r="1209" spans="1:9" x14ac:dyDescent="0.25">
@@ -39515,10 +39518,10 @@
         <v>6097</v>
       </c>
       <c r="H1209" s="19">
-        <v>4837</v>
+        <v>4864</v>
       </c>
       <c r="I1209" s="19">
-        <v>41148</v>
+        <v>41176</v>
       </c>
     </row>
     <row r="1210" spans="1:9" x14ac:dyDescent="0.25">
@@ -39573,10 +39576,10 @@
         <v>5197</v>
       </c>
       <c r="H1211" s="19">
-        <v>10674</v>
+        <v>10749</v>
       </c>
       <c r="I1211" s="19">
-        <v>57889</v>
+        <v>57963</v>
       </c>
     </row>
     <row r="1212" spans="1:9" x14ac:dyDescent="0.25">
@@ -39767,19 +39770,19 @@
         <v>4569</v>
       </c>
       <c r="E1218" s="18">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="F1218" s="18">
-        <v>617</v>
+        <v>779</v>
       </c>
       <c r="G1218" s="19">
-        <v>4431</v>
+        <v>4793</v>
       </c>
       <c r="H1218" s="19">
         <v>6878</v>
       </c>
       <c r="I1218" s="19">
-        <v>50192</v>
+        <v>50354</v>
       </c>
     </row>
     <row r="1219" spans="1:9" x14ac:dyDescent="0.25">
@@ -39787,13 +39790,13 @@
         <v>1223</v>
       </c>
       <c r="B1219" s="19">
-        <v>12225</v>
+        <v>12252</v>
       </c>
       <c r="C1219" s="19">
-        <v>57358</v>
+        <v>57609</v>
       </c>
       <c r="D1219" s="19">
-        <v>4692</v>
+        <v>4702</v>
       </c>
       <c r="E1219" s="18">
         <v>167</v>
@@ -39808,7 +39811,7 @@
         <v>10151</v>
       </c>
       <c r="I1219" s="19">
-        <v>68183</v>
+        <v>68434</v>
       </c>
     </row>
     <row r="1220" spans="1:9" x14ac:dyDescent="0.25">
@@ -39816,28 +39819,28 @@
         <v>1224</v>
       </c>
       <c r="B1220" s="19">
-        <v>10014</v>
+        <v>10010</v>
       </c>
       <c r="C1220" s="19">
-        <v>48645</v>
+        <v>48599</v>
       </c>
       <c r="D1220" s="19">
-        <v>4858</v>
+        <v>4855</v>
       </c>
       <c r="E1220" s="18">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="F1220" s="19">
-        <v>1223</v>
+        <v>1082</v>
       </c>
       <c r="G1220" s="19">
-        <v>5608</v>
+        <v>5570</v>
       </c>
       <c r="H1220" s="19">
-        <v>3283</v>
+        <v>3279</v>
       </c>
       <c r="I1220" s="19">
-        <v>53150</v>
+        <v>52959</v>
       </c>
     </row>
     <row r="1221" spans="1:9" x14ac:dyDescent="0.25">
@@ -39845,28 +39848,28 @@
         <v>1225</v>
       </c>
       <c r="B1221" s="19">
-        <v>10715</v>
+        <v>11396</v>
       </c>
       <c r="C1221" s="19">
-        <v>49187</v>
+        <v>52410</v>
       </c>
       <c r="D1221" s="19">
-        <v>4590</v>
+        <v>4599</v>
       </c>
       <c r="E1221" s="18">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F1221" s="19">
-        <v>1506</v>
+        <v>1661</v>
       </c>
       <c r="G1221" s="19">
-        <v>4471</v>
+        <v>4843</v>
       </c>
       <c r="H1221" s="19">
-        <v>7859</v>
+        <v>8396</v>
       </c>
       <c r="I1221" s="19">
-        <v>58552</v>
+        <v>62467</v>
       </c>
     </row>
     <row r="1222" spans="1:9" x14ac:dyDescent="0.25">
@@ -39874,28 +39877,28 @@
         <v>1226</v>
       </c>
       <c r="B1222" s="19">
-        <v>5154</v>
+        <v>5314</v>
       </c>
       <c r="C1222" s="19">
-        <v>22809</v>
+        <v>23913</v>
       </c>
       <c r="D1222" s="19">
-        <v>4425</v>
+        <v>4500</v>
       </c>
       <c r="E1222" s="18">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F1222" s="18">
-        <v>521</v>
+        <v>792</v>
       </c>
       <c r="G1222" s="19">
-        <v>6579</v>
+        <v>6270</v>
       </c>
       <c r="H1222" s="19">
-        <v>3500</v>
+        <v>4076</v>
       </c>
       <c r="I1222" s="19">
-        <v>26830</v>
+        <v>28781</v>
       </c>
     </row>
     <row r="1223" spans="1:9" x14ac:dyDescent="0.25">
@@ -39903,42 +39906,71 @@
         <v>1227</v>
       </c>
       <c r="B1223" s="19">
-        <v>7554</v>
+        <v>10126</v>
       </c>
       <c r="C1223" s="19">
-        <v>42360</v>
+        <v>54516</v>
       </c>
       <c r="D1223" s="19">
-        <v>5608</v>
+        <v>5384</v>
       </c>
       <c r="E1223" s="18">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F1223" s="18">
-        <v>399</v>
+        <v>571</v>
       </c>
       <c r="G1223" s="19">
-        <v>5395</v>
+        <v>5067</v>
       </c>
       <c r="H1223" s="19">
-        <v>5528</v>
+        <v>7484</v>
       </c>
       <c r="I1223" s="19">
-        <v>48287</v>
+        <v>62571</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1224" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1224" s="19">
+        <v>5950</v>
+      </c>
+      <c r="C1224" s="19">
+        <v>30016</v>
+      </c>
+      <c r="D1224" s="19">
+        <v>5045</v>
+      </c>
+      <c r="E1224" s="18">
+        <v>196</v>
+      </c>
+      <c r="F1224" s="18">
+        <v>953</v>
+      </c>
+      <c r="G1224" s="19">
+        <v>4857</v>
+      </c>
+      <c r="H1224" s="19">
+        <v>10825</v>
+      </c>
+      <c r="I1224" s="19">
+        <v>41794</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD5AEBB-A6BD-4DE6-8B13-B0F048BBBCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBA1609-D395-4ED3-9F94-0D8479DDBE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="1230">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3724,6 +3724,9 @@
   </si>
   <si>
     <t>27/04/2025 al 03/05/2025</t>
+  </si>
+  <si>
+    <t>04/05/2025 al 10/05/2025</t>
   </si>
 </sst>
 </file>
@@ -3969,13 +3972,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4298,11 +4301,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1224"/>
+  <dimension ref="A1:P1225"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1223" sqref="M1223"/>
+      <pane ySplit="6" topLeftCell="A1217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1223" sqref="F1223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4412,11 +4415,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4430,28 +4433,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4461,14 +4464,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -39097,7 +39100,7 @@
         <v>8256</v>
       </c>
       <c r="C1195" s="19">
-        <v>37470</v>
+        <v>37469</v>
       </c>
       <c r="D1195" s="19">
         <v>4538</v>
@@ -39155,7 +39158,7 @@
         <v>8112</v>
       </c>
       <c r="C1197" s="19">
-        <v>39075</v>
+        <v>39076</v>
       </c>
       <c r="D1197" s="19">
         <v>4817</v>
@@ -39173,7 +39176,7 @@
         <v>5107</v>
       </c>
       <c r="I1197" s="19">
-        <v>45105</v>
+        <v>45106</v>
       </c>
     </row>
     <row r="1198" spans="1:9" x14ac:dyDescent="0.25">
@@ -39257,10 +39260,10 @@
         <v>5782</v>
       </c>
       <c r="H1200" s="19">
-        <v>5283</v>
+        <v>5401</v>
       </c>
       <c r="I1200" s="19">
-        <v>26579</v>
+        <v>26697</v>
       </c>
     </row>
     <row r="1201" spans="1:9" x14ac:dyDescent="0.25">
@@ -39387,7 +39390,7 @@
         <v>10715</v>
       </c>
       <c r="C1205" s="19">
-        <v>45665</v>
+        <v>45664</v>
       </c>
       <c r="D1205" s="19">
         <v>4262</v>
@@ -39405,7 +39408,7 @@
         <v>7927</v>
       </c>
       <c r="I1205" s="19">
-        <v>54701</v>
+        <v>54700</v>
       </c>
     </row>
     <row r="1206" spans="1:9" x14ac:dyDescent="0.25">
@@ -39605,10 +39608,10 @@
         <v>5484</v>
       </c>
       <c r="H1212" s="19">
-        <v>8638</v>
+        <v>8680</v>
       </c>
       <c r="I1212" s="19">
-        <v>76662</v>
+        <v>76704</v>
       </c>
     </row>
     <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
@@ -39663,10 +39666,10 @@
         <v>4338</v>
       </c>
       <c r="H1214" s="19">
-        <v>3787</v>
+        <v>3825</v>
       </c>
       <c r="I1214" s="19">
-        <v>55876</v>
+        <v>55913</v>
       </c>
     </row>
     <row r="1215" spans="1:9" x14ac:dyDescent="0.25">
@@ -39692,10 +39695,10 @@
         <v>4650</v>
       </c>
       <c r="H1215" s="19">
-        <v>8771</v>
+        <v>8798</v>
       </c>
       <c r="I1215" s="19">
-        <v>77230</v>
+        <v>77258</v>
       </c>
     </row>
     <row r="1216" spans="1:9" x14ac:dyDescent="0.25">
@@ -39735,7 +39738,7 @@
         <v>8924</v>
       </c>
       <c r="C1217" s="19">
-        <v>42449</v>
+        <v>42448</v>
       </c>
       <c r="D1217" s="19">
         <v>4756</v>
@@ -39753,7 +39756,7 @@
         <v>18259</v>
       </c>
       <c r="I1217" s="19">
-        <v>62575</v>
+        <v>62574</v>
       </c>
     </row>
     <row r="1218" spans="1:9" x14ac:dyDescent="0.25">
@@ -39779,7 +39782,7 @@
         <v>4793</v>
       </c>
       <c r="H1218" s="19">
-        <v>6878</v>
+        <v>6877</v>
       </c>
       <c r="I1218" s="19">
         <v>50354</v>
@@ -39822,7 +39825,7 @@
         <v>10010</v>
       </c>
       <c r="C1220" s="19">
-        <v>48599</v>
+        <v>48598</v>
       </c>
       <c r="D1220" s="19">
         <v>4855</v>
@@ -39848,13 +39851,13 @@
         <v>1225</v>
       </c>
       <c r="B1221" s="19">
-        <v>11396</v>
+        <v>11330</v>
       </c>
       <c r="C1221" s="19">
-        <v>52410</v>
+        <v>52191</v>
       </c>
       <c r="D1221" s="19">
-        <v>4599</v>
+        <v>4606</v>
       </c>
       <c r="E1221" s="18">
         <v>343</v>
@@ -39866,10 +39869,10 @@
         <v>4843</v>
       </c>
       <c r="H1221" s="19">
-        <v>8396</v>
+        <v>8417</v>
       </c>
       <c r="I1221" s="19">
-        <v>62467</v>
+        <v>62269</v>
       </c>
     </row>
     <row r="1222" spans="1:9" x14ac:dyDescent="0.25">
@@ -39877,28 +39880,28 @@
         <v>1226</v>
       </c>
       <c r="B1222" s="19">
-        <v>5314</v>
+        <v>5342</v>
       </c>
       <c r="C1222" s="19">
-        <v>23913</v>
+        <v>23954</v>
       </c>
       <c r="D1222" s="19">
-        <v>4500</v>
+        <v>4484</v>
       </c>
       <c r="E1222" s="18">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F1222" s="18">
-        <v>792</v>
+        <v>679</v>
       </c>
       <c r="G1222" s="19">
-        <v>6270</v>
+        <v>6336</v>
       </c>
       <c r="H1222" s="19">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="I1222" s="19">
-        <v>28781</v>
+        <v>28710</v>
       </c>
     </row>
     <row r="1223" spans="1:9" x14ac:dyDescent="0.25">
@@ -39906,28 +39909,28 @@
         <v>1227</v>
       </c>
       <c r="B1223" s="19">
-        <v>10126</v>
+        <v>10551</v>
       </c>
       <c r="C1223" s="19">
-        <v>54516</v>
+        <v>55690</v>
       </c>
       <c r="D1223" s="19">
-        <v>5384</v>
+        <v>5278</v>
       </c>
       <c r="E1223" s="18">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F1223" s="18">
-        <v>571</v>
+        <v>724</v>
       </c>
       <c r="G1223" s="19">
-        <v>5067</v>
+        <v>5330</v>
       </c>
       <c r="H1223" s="19">
-        <v>7484</v>
+        <v>8017</v>
       </c>
       <c r="I1223" s="19">
-        <v>62571</v>
+        <v>64430</v>
       </c>
     </row>
     <row r="1224" spans="1:9" x14ac:dyDescent="0.25">
@@ -39935,42 +39938,71 @@
         <v>1228</v>
       </c>
       <c r="B1224" s="19">
-        <v>5950</v>
+        <v>9913</v>
       </c>
       <c r="C1224" s="19">
-        <v>30016</v>
+        <v>50340</v>
       </c>
       <c r="D1224" s="19">
-        <v>5045</v>
+        <v>5078</v>
       </c>
       <c r="E1224" s="18">
-        <v>196</v>
-      </c>
-      <c r="F1224" s="18">
-        <v>953</v>
+        <v>218</v>
+      </c>
+      <c r="F1224" s="19">
+        <v>1062</v>
       </c>
       <c r="G1224" s="19">
-        <v>4857</v>
+        <v>4865</v>
       </c>
       <c r="H1224" s="19">
-        <v>10825</v>
+        <v>13051</v>
       </c>
       <c r="I1224" s="19">
-        <v>41794</v>
+        <v>64453</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1225" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1225" s="19">
+        <v>6912</v>
+      </c>
+      <c r="C1225" s="19">
+        <v>38224</v>
+      </c>
+      <c r="D1225" s="19">
+        <v>5530</v>
+      </c>
+      <c r="E1225" s="18">
+        <v>123</v>
+      </c>
+      <c r="F1225" s="18">
+        <v>483</v>
+      </c>
+      <c r="G1225" s="19">
+        <v>3909</v>
+      </c>
+      <c r="H1225" s="19">
+        <v>5551</v>
+      </c>
+      <c r="I1225" s="19">
+        <v>44257</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBA1609-D395-4ED3-9F94-0D8479DDBE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74A0BE2-F171-4DFB-8238-70C1B6F18A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1231">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3727,6 +3727,9 @@
   </si>
   <si>
     <t>04/05/2025 al 10/05/2025</t>
+  </si>
+  <si>
+    <t>11/05/2025 al 17/05/2025</t>
   </si>
 </sst>
 </file>
@@ -4301,11 +4304,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1225"/>
+  <dimension ref="A1:P1226"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1223" sqref="F1223"/>
+      <pane ySplit="6" topLeftCell="A1221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1226" sqref="D1226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38636,7 +38639,7 @@
         <v>11357</v>
       </c>
       <c r="C1179" s="19">
-        <v>44700</v>
+        <v>44699</v>
       </c>
       <c r="D1179" s="19">
         <v>3936</v>
@@ -38654,7 +38657,7 @@
         <v>7025</v>
       </c>
       <c r="I1179" s="19">
-        <v>52646</v>
+        <v>52644</v>
       </c>
     </row>
     <row r="1180" spans="1:9" x14ac:dyDescent="0.25">
@@ -38723,7 +38726,7 @@
         <v>8774</v>
       </c>
       <c r="C1182" s="19">
-        <v>40877</v>
+        <v>40874</v>
       </c>
       <c r="D1182" s="19">
         <v>4659</v>
@@ -38741,7 +38744,7 @@
         <v>8413</v>
       </c>
       <c r="I1182" s="19">
-        <v>50226</v>
+        <v>50223</v>
       </c>
     </row>
     <row r="1183" spans="1:9" x14ac:dyDescent="0.25">
@@ -38810,7 +38813,7 @@
         <v>7178</v>
       </c>
       <c r="C1185" s="19">
-        <v>31353</v>
+        <v>31351</v>
       </c>
       <c r="D1185" s="19">
         <v>4368</v>
@@ -38825,10 +38828,10 @@
         <v>4806</v>
       </c>
       <c r="H1185" s="19">
-        <v>21217</v>
+        <v>21198</v>
       </c>
       <c r="I1185" s="19">
-        <v>53319</v>
+        <v>53298</v>
       </c>
     </row>
     <row r="1186" spans="1:9" x14ac:dyDescent="0.25">
@@ -39071,10 +39074,10 @@
         <v>11095</v>
       </c>
       <c r="C1194" s="19">
-        <v>46123</v>
+        <v>46111</v>
       </c>
       <c r="D1194" s="19">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="E1194" s="18">
         <v>351</v>
@@ -39089,7 +39092,7 @@
         <v>11915</v>
       </c>
       <c r="I1194" s="19">
-        <v>59303</v>
+        <v>59291</v>
       </c>
     </row>
     <row r="1195" spans="1:9" x14ac:dyDescent="0.25">
@@ -39158,7 +39161,7 @@
         <v>8112</v>
       </c>
       <c r="C1197" s="19">
-        <v>39076</v>
+        <v>39075</v>
       </c>
       <c r="D1197" s="19">
         <v>4817</v>
@@ -39187,7 +39190,7 @@
         <v>9098</v>
       </c>
       <c r="C1198" s="19">
-        <v>41068</v>
+        <v>41067</v>
       </c>
       <c r="D1198" s="19">
         <v>4514</v>
@@ -39205,7 +39208,7 @@
         <v>5176</v>
       </c>
       <c r="I1198" s="19">
-        <v>47674</v>
+        <v>47673</v>
       </c>
     </row>
     <row r="1199" spans="1:9" x14ac:dyDescent="0.25">
@@ -39231,10 +39234,10 @@
         <v>4968</v>
       </c>
       <c r="H1199" s="19">
-        <v>19083</v>
+        <v>19077</v>
       </c>
       <c r="I1199" s="19">
-        <v>64237</v>
+        <v>64231</v>
       </c>
     </row>
     <row r="1200" spans="1:9" x14ac:dyDescent="0.25">
@@ -39303,10 +39306,10 @@
         <v>17313</v>
       </c>
       <c r="C1202" s="19">
-        <v>73870</v>
+        <v>73865</v>
       </c>
       <c r="D1202" s="19">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="E1202" s="18">
         <v>419</v>
@@ -39321,7 +39324,7 @@
         <v>10842</v>
       </c>
       <c r="I1202" s="19">
-        <v>86598</v>
+        <v>86593</v>
       </c>
     </row>
     <row r="1203" spans="1:9" x14ac:dyDescent="0.25">
@@ -39332,10 +39335,10 @@
         <v>7282</v>
       </c>
       <c r="C1203" s="19">
-        <v>32225</v>
+        <v>32224</v>
       </c>
       <c r="D1203" s="19">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="E1203" s="18">
         <v>237</v>
@@ -39350,7 +39353,7 @@
         <v>13732</v>
       </c>
       <c r="I1203" s="19">
-        <v>47029</v>
+        <v>47028</v>
       </c>
     </row>
     <row r="1204" spans="1:9" x14ac:dyDescent="0.25">
@@ -39390,7 +39393,7 @@
         <v>10715</v>
       </c>
       <c r="C1205" s="19">
-        <v>45664</v>
+        <v>45662</v>
       </c>
       <c r="D1205" s="19">
         <v>4262</v>
@@ -39408,7 +39411,7 @@
         <v>7927</v>
       </c>
       <c r="I1205" s="19">
-        <v>54700</v>
+        <v>54699</v>
       </c>
     </row>
     <row r="1206" spans="1:9" x14ac:dyDescent="0.25">
@@ -39477,7 +39480,7 @@
         <v>8772</v>
       </c>
       <c r="C1208" s="19">
-        <v>39764</v>
+        <v>39763</v>
       </c>
       <c r="D1208" s="19">
         <v>4533</v>
@@ -39495,7 +39498,7 @@
         <v>6012</v>
       </c>
       <c r="I1208" s="19">
-        <v>47598</v>
+        <v>47597</v>
       </c>
     </row>
     <row r="1209" spans="1:9" x14ac:dyDescent="0.25">
@@ -39524,7 +39527,7 @@
         <v>4864</v>
       </c>
       <c r="I1209" s="19">
-        <v>41176</v>
+        <v>41175</v>
       </c>
     </row>
     <row r="1210" spans="1:9" x14ac:dyDescent="0.25">
@@ -39611,7 +39614,7 @@
         <v>8680</v>
       </c>
       <c r="I1212" s="19">
-        <v>76704</v>
+        <v>76705</v>
       </c>
     </row>
     <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
@@ -39753,10 +39756,10 @@
         <v>5323</v>
       </c>
       <c r="H1217" s="19">
-        <v>18259</v>
+        <v>18258</v>
       </c>
       <c r="I1217" s="19">
-        <v>62574</v>
+        <v>62573</v>
       </c>
     </row>
     <row r="1218" spans="1:9" x14ac:dyDescent="0.25">
@@ -39767,10 +39770,10 @@
         <v>9344</v>
       </c>
       <c r="C1218" s="19">
-        <v>42697</v>
+        <v>42700</v>
       </c>
       <c r="D1218" s="19">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="E1218" s="18">
         <v>163</v>
@@ -39785,7 +39788,7 @@
         <v>6877</v>
       </c>
       <c r="I1218" s="19">
-        <v>50354</v>
+        <v>50356</v>
       </c>
     </row>
     <row r="1219" spans="1:9" x14ac:dyDescent="0.25">
@@ -39880,13 +39883,13 @@
         <v>1226</v>
       </c>
       <c r="B1222" s="19">
-        <v>5342</v>
+        <v>5316</v>
       </c>
       <c r="C1222" s="19">
-        <v>23954</v>
+        <v>23867</v>
       </c>
       <c r="D1222" s="19">
-        <v>4484</v>
+        <v>4489</v>
       </c>
       <c r="E1222" s="18">
         <v>107</v>
@@ -39898,10 +39901,10 @@
         <v>6336</v>
       </c>
       <c r="H1222" s="19">
-        <v>4077</v>
+        <v>4056</v>
       </c>
       <c r="I1222" s="19">
-        <v>28710</v>
+        <v>28601</v>
       </c>
     </row>
     <row r="1223" spans="1:9" x14ac:dyDescent="0.25">
@@ -39909,13 +39912,13 @@
         <v>1227</v>
       </c>
       <c r="B1223" s="19">
-        <v>10551</v>
+        <v>10639</v>
       </c>
       <c r="C1223" s="19">
-        <v>55690</v>
+        <v>55706</v>
       </c>
       <c r="D1223" s="19">
-        <v>5278</v>
+        <v>5236</v>
       </c>
       <c r="E1223" s="18">
         <v>136</v>
@@ -39927,10 +39930,10 @@
         <v>5330</v>
       </c>
       <c r="H1223" s="19">
-        <v>8017</v>
+        <v>8193</v>
       </c>
       <c r="I1223" s="19">
-        <v>64430</v>
+        <v>64623</v>
       </c>
     </row>
     <row r="1224" spans="1:9" x14ac:dyDescent="0.25">
@@ -39938,28 +39941,28 @@
         <v>1228</v>
       </c>
       <c r="B1224" s="19">
-        <v>9913</v>
+        <v>10394</v>
       </c>
       <c r="C1224" s="19">
-        <v>50340</v>
+        <v>50551</v>
       </c>
       <c r="D1224" s="19">
-        <v>5078</v>
+        <v>4864</v>
       </c>
       <c r="E1224" s="18">
-        <v>218</v>
-      </c>
-      <c r="F1224" s="19">
-        <v>1062</v>
+        <v>195</v>
+      </c>
+      <c r="F1224" s="18">
+        <v>926</v>
       </c>
       <c r="G1224" s="19">
-        <v>4865</v>
+        <v>4744</v>
       </c>
       <c r="H1224" s="19">
-        <v>13051</v>
+        <v>14434</v>
       </c>
       <c r="I1224" s="19">
-        <v>64453</v>
+        <v>65911</v>
       </c>
     </row>
     <row r="1225" spans="1:9" x14ac:dyDescent="0.25">
@@ -39967,28 +39970,57 @@
         <v>1229</v>
       </c>
       <c r="B1225" s="19">
-        <v>6912</v>
+        <v>12058</v>
       </c>
       <c r="C1225" s="19">
-        <v>38224</v>
+        <v>60811</v>
       </c>
       <c r="D1225" s="19">
-        <v>5530</v>
+        <v>5043</v>
       </c>
       <c r="E1225" s="18">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="F1225" s="18">
-        <v>483</v>
+        <v>620</v>
       </c>
       <c r="G1225" s="19">
-        <v>3909</v>
+        <v>4228</v>
       </c>
       <c r="H1225" s="19">
-        <v>5551</v>
+        <v>7863</v>
       </c>
       <c r="I1225" s="19">
-        <v>44257</v>
+        <v>69293</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1226" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1226" s="19">
+        <v>7547</v>
+      </c>
+      <c r="C1226" s="19">
+        <v>41751</v>
+      </c>
+      <c r="D1226" s="19">
+        <v>5532</v>
+      </c>
+      <c r="E1226" s="18">
+        <v>146</v>
+      </c>
+      <c r="F1226" s="18">
+        <v>679</v>
+      </c>
+      <c r="G1226" s="19">
+        <v>4657</v>
+      </c>
+      <c r="H1226" s="19">
+        <v>3515</v>
+      </c>
+      <c r="I1226" s="19">
+        <v>45946</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74A0BE2-F171-4DFB-8238-70C1B6F18A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE17BF-2D78-43A2-8B78-309B6742AA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
   <sheets>
     <sheet name="IMPRIMIR" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="1232">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3730,6 +3730,9 @@
   </si>
   <si>
     <t>11/05/2025 al 17/05/2025</t>
+  </si>
+  <si>
+    <t>18/05/2025 al 24/05/2025</t>
   </si>
 </sst>
 </file>
@@ -4304,11 +4307,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1226"/>
+  <dimension ref="A1:P1227"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1226" sqref="D1226"/>
+      <pane ySplit="6" topLeftCell="A1222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1225" sqref="K1225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37363,7 +37366,7 @@
         <v>7845</v>
       </c>
       <c r="C1135" s="19">
-        <v>32244</v>
+        <v>32242</v>
       </c>
       <c r="D1135" s="19">
         <v>4110</v>
@@ -37381,7 +37384,7 @@
         <v>6398</v>
       </c>
       <c r="I1135" s="19">
-        <v>39732</v>
+        <v>39730</v>
       </c>
     </row>
     <row r="1136" spans="1:9" x14ac:dyDescent="0.25">
@@ -39263,10 +39266,10 @@
         <v>5782</v>
       </c>
       <c r="H1200" s="19">
-        <v>5401</v>
+        <v>5202</v>
       </c>
       <c r="I1200" s="19">
-        <v>26697</v>
+        <v>26498</v>
       </c>
     </row>
     <row r="1201" spans="1:9" x14ac:dyDescent="0.25">
@@ -39509,7 +39512,7 @@
         <v>7445</v>
       </c>
       <c r="C1209" s="19">
-        <v>34521</v>
+        <v>34520</v>
       </c>
       <c r="D1209" s="19">
         <v>4637</v>
@@ -39756,10 +39759,10 @@
         <v>5323</v>
       </c>
       <c r="H1217" s="19">
-        <v>18258</v>
+        <v>18305</v>
       </c>
       <c r="I1217" s="19">
-        <v>62573</v>
+        <v>62620</v>
       </c>
     </row>
     <row r="1218" spans="1:9" x14ac:dyDescent="0.25">
@@ -39883,13 +39886,13 @@
         <v>1226</v>
       </c>
       <c r="B1222" s="19">
-        <v>5316</v>
+        <v>5281</v>
       </c>
       <c r="C1222" s="19">
-        <v>23867</v>
+        <v>23762</v>
       </c>
       <c r="D1222" s="19">
-        <v>4489</v>
+        <v>4499</v>
       </c>
       <c r="E1222" s="18">
         <v>107</v>
@@ -39904,7 +39907,7 @@
         <v>4056</v>
       </c>
       <c r="I1222" s="19">
-        <v>28601</v>
+        <v>28496</v>
       </c>
     </row>
     <row r="1223" spans="1:9" x14ac:dyDescent="0.25">
@@ -39912,13 +39915,13 @@
         <v>1227</v>
       </c>
       <c r="B1223" s="19">
-        <v>10639</v>
+        <v>10536</v>
       </c>
       <c r="C1223" s="19">
-        <v>55706</v>
+        <v>55245</v>
       </c>
       <c r="D1223" s="19">
-        <v>5236</v>
+        <v>5243</v>
       </c>
       <c r="E1223" s="18">
         <v>136</v>
@@ -39933,7 +39936,7 @@
         <v>8193</v>
       </c>
       <c r="I1223" s="19">
-        <v>64623</v>
+        <v>64161</v>
       </c>
     </row>
     <row r="1224" spans="1:9" x14ac:dyDescent="0.25">
@@ -39941,28 +39944,28 @@
         <v>1228</v>
       </c>
       <c r="B1224" s="19">
-        <v>10394</v>
+        <v>10739</v>
       </c>
       <c r="C1224" s="19">
-        <v>50551</v>
+        <v>51742</v>
       </c>
       <c r="D1224" s="19">
-        <v>4864</v>
+        <v>4818</v>
       </c>
       <c r="E1224" s="18">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F1224" s="18">
-        <v>926</v>
+        <v>827</v>
       </c>
       <c r="G1224" s="19">
-        <v>4744</v>
+        <v>4585</v>
       </c>
       <c r="H1224" s="19">
-        <v>14434</v>
+        <v>14886</v>
       </c>
       <c r="I1224" s="19">
-        <v>65911</v>
+        <v>67455</v>
       </c>
     </row>
     <row r="1225" spans="1:9" x14ac:dyDescent="0.25">
@@ -39970,28 +39973,28 @@
         <v>1229</v>
       </c>
       <c r="B1225" s="19">
-        <v>12058</v>
+        <v>13961</v>
       </c>
       <c r="C1225" s="19">
-        <v>60811</v>
+        <v>69555</v>
       </c>
       <c r="D1225" s="19">
-        <v>5043</v>
+        <v>4982</v>
       </c>
       <c r="E1225" s="18">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="F1225" s="18">
-        <v>620</v>
+        <v>704</v>
       </c>
       <c r="G1225" s="19">
-        <v>4228</v>
+        <v>4306</v>
       </c>
       <c r="H1225" s="19">
-        <v>7863</v>
+        <v>9223</v>
       </c>
       <c r="I1225" s="19">
-        <v>69293</v>
+        <v>79482</v>
       </c>
     </row>
     <row r="1226" spans="1:9" x14ac:dyDescent="0.25">
@@ -39999,28 +40002,57 @@
         <v>1230</v>
       </c>
       <c r="B1226" s="19">
-        <v>7547</v>
+        <v>12266</v>
       </c>
       <c r="C1226" s="19">
-        <v>41751</v>
+        <v>64039</v>
       </c>
       <c r="D1226" s="19">
-        <v>5532</v>
+        <v>5221</v>
       </c>
       <c r="E1226" s="18">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F1226" s="18">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="G1226" s="19">
-        <v>4657</v>
+        <v>4780</v>
       </c>
       <c r="H1226" s="19">
-        <v>3515</v>
+        <v>4398</v>
       </c>
       <c r="I1226" s="19">
-        <v>45946</v>
+        <v>69148</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1227" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1227" s="19">
+        <v>6676</v>
+      </c>
+      <c r="C1227" s="19">
+        <v>36581</v>
+      </c>
+      <c r="D1227" s="19">
+        <v>5480</v>
+      </c>
+      <c r="E1227" s="18">
+        <v>77</v>
+      </c>
+      <c r="F1227" s="18">
+        <v>454</v>
+      </c>
+      <c r="G1227" s="19">
+        <v>5881</v>
+      </c>
+      <c r="H1227" s="19">
+        <v>7231</v>
+      </c>
+      <c r="I1227" s="19">
+        <v>44267</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE17BF-2D78-43A2-8B78-309B6742AA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732D3070-85AF-4BB4-BCFB-12E9CDB9B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="1233">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3733,6 +3733,9 @@
   </si>
   <si>
     <t>18/05/2025 al 24/05/2025</t>
+  </si>
+  <si>
+    <t>25/05/2025 al 31/05/2025</t>
   </si>
 </sst>
 </file>
@@ -3978,13 +3981,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4307,11 +4310,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1227"/>
+  <dimension ref="A1:P1228"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1225" sqref="K1225"/>
+      <pane ySplit="6" topLeftCell="A1223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1226" sqref="J1226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4421,11 +4424,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4439,28 +4442,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4470,14 +4473,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -37482,7 +37485,7 @@
         <v>8572</v>
       </c>
       <c r="C1139" s="19">
-        <v>34016</v>
+        <v>34013</v>
       </c>
       <c r="D1139" s="19">
         <v>3968</v>
@@ -37500,7 +37503,7 @@
         <v>4680</v>
       </c>
       <c r="I1139" s="19">
-        <v>39769</v>
+        <v>39766</v>
       </c>
     </row>
     <row r="1140" spans="1:9" x14ac:dyDescent="0.25">
@@ -37743,10 +37746,10 @@
         <v>15332</v>
       </c>
       <c r="C1148" s="19">
-        <v>63042</v>
+        <v>63036</v>
       </c>
       <c r="D1148" s="19">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="E1148" s="18">
         <v>641</v>
@@ -37761,7 +37764,7 @@
         <v>12733</v>
       </c>
       <c r="I1148" s="19">
-        <v>77909</v>
+        <v>77903</v>
       </c>
     </row>
     <row r="1149" spans="1:9" x14ac:dyDescent="0.25">
@@ -39295,10 +39298,10 @@
         <v>4417</v>
       </c>
       <c r="H1201" s="19">
-        <v>7795</v>
+        <v>8028</v>
       </c>
       <c r="I1201" s="19">
-        <v>79002</v>
+        <v>79235</v>
       </c>
     </row>
     <row r="1202" spans="1:9" x14ac:dyDescent="0.25">
@@ -39338,7 +39341,7 @@
         <v>7282</v>
       </c>
       <c r="C1203" s="19">
-        <v>32224</v>
+        <v>32219</v>
       </c>
       <c r="D1203" s="19">
         <v>4425</v>
@@ -39356,7 +39359,7 @@
         <v>13732</v>
       </c>
       <c r="I1203" s="19">
-        <v>47028</v>
+        <v>47022</v>
       </c>
     </row>
     <row r="1204" spans="1:9" x14ac:dyDescent="0.25">
@@ -39483,7 +39486,7 @@
         <v>8772</v>
       </c>
       <c r="C1208" s="19">
-        <v>39763</v>
+        <v>39761</v>
       </c>
       <c r="D1208" s="19">
         <v>4533</v>
@@ -39498,10 +39501,10 @@
         <v>6915</v>
       </c>
       <c r="H1208" s="19">
-        <v>6012</v>
+        <v>5834</v>
       </c>
       <c r="I1208" s="19">
-        <v>47597</v>
+        <v>47416</v>
       </c>
     </row>
     <row r="1209" spans="1:9" x14ac:dyDescent="0.25">
@@ -39596,13 +39599,13 @@
         <v>1216</v>
       </c>
       <c r="B1212" s="19">
-        <v>14602</v>
+        <v>14592</v>
       </c>
       <c r="C1212" s="19">
-        <v>65853</v>
+        <v>65735</v>
       </c>
       <c r="D1212" s="19">
-        <v>4510</v>
+        <v>4505</v>
       </c>
       <c r="E1212" s="18">
         <v>396</v>
@@ -39617,7 +39620,7 @@
         <v>8680</v>
       </c>
       <c r="I1212" s="19">
-        <v>76705</v>
+        <v>76587</v>
       </c>
     </row>
     <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
@@ -39730,10 +39733,10 @@
         <v>4777</v>
       </c>
       <c r="H1216" s="19">
-        <v>12080</v>
+        <v>12104</v>
       </c>
       <c r="I1216" s="19">
-        <v>49158</v>
+        <v>49182</v>
       </c>
     </row>
     <row r="1217" spans="1:9" x14ac:dyDescent="0.25">
@@ -39744,7 +39747,7 @@
         <v>8924</v>
       </c>
       <c r="C1217" s="19">
-        <v>42448</v>
+        <v>42447</v>
       </c>
       <c r="D1217" s="19">
         <v>4756</v>
@@ -39759,10 +39762,10 @@
         <v>5323</v>
       </c>
       <c r="H1217" s="19">
-        <v>18305</v>
+        <v>18329</v>
       </c>
       <c r="I1217" s="19">
-        <v>62620</v>
+        <v>62644</v>
       </c>
     </row>
     <row r="1218" spans="1:9" x14ac:dyDescent="0.25">
@@ -39802,7 +39805,7 @@
         <v>12252</v>
       </c>
       <c r="C1219" s="19">
-        <v>57609</v>
+        <v>57610</v>
       </c>
       <c r="D1219" s="19">
         <v>4702</v>
@@ -39817,10 +39820,10 @@
         <v>4040</v>
       </c>
       <c r="H1219" s="19">
-        <v>10151</v>
+        <v>10184</v>
       </c>
       <c r="I1219" s="19">
-        <v>68434</v>
+        <v>68467</v>
       </c>
     </row>
     <row r="1220" spans="1:9" x14ac:dyDescent="0.25">
@@ -39846,10 +39849,10 @@
         <v>5570</v>
       </c>
       <c r="H1220" s="19">
-        <v>3279</v>
+        <v>3343</v>
       </c>
       <c r="I1220" s="19">
-        <v>52959</v>
+        <v>53023</v>
       </c>
     </row>
     <row r="1221" spans="1:9" x14ac:dyDescent="0.25">
@@ -39860,7 +39863,7 @@
         <v>11330</v>
       </c>
       <c r="C1221" s="19">
-        <v>52191</v>
+        <v>52186</v>
       </c>
       <c r="D1221" s="19">
         <v>4606</v>
@@ -39878,7 +39881,7 @@
         <v>8417</v>
       </c>
       <c r="I1221" s="19">
-        <v>62269</v>
+        <v>62265</v>
       </c>
     </row>
     <row r="1222" spans="1:9" x14ac:dyDescent="0.25">
@@ -39947,7 +39950,7 @@
         <v>10739</v>
       </c>
       <c r="C1224" s="19">
-        <v>51742</v>
+        <v>51743</v>
       </c>
       <c r="D1224" s="19">
         <v>4818</v>
@@ -39956,16 +39959,16 @@
         <v>180</v>
       </c>
       <c r="F1224" s="18">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="G1224" s="19">
-        <v>4585</v>
+        <v>4565</v>
       </c>
       <c r="H1224" s="19">
         <v>14886</v>
       </c>
       <c r="I1224" s="19">
-        <v>67455</v>
+        <v>67452</v>
       </c>
     </row>
     <row r="1225" spans="1:9" x14ac:dyDescent="0.25">
@@ -39973,28 +39976,28 @@
         <v>1229</v>
       </c>
       <c r="B1225" s="19">
-        <v>13961</v>
+        <v>14283</v>
       </c>
       <c r="C1225" s="19">
-        <v>69555</v>
+        <v>70795</v>
       </c>
       <c r="D1225" s="19">
-        <v>4982</v>
+        <v>4957</v>
       </c>
       <c r="E1225" s="18">
         <v>163</v>
       </c>
       <c r="F1225" s="18">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G1225" s="19">
-        <v>4306</v>
+        <v>4284</v>
       </c>
       <c r="H1225" s="19">
-        <v>9223</v>
+        <v>9471</v>
       </c>
       <c r="I1225" s="19">
-        <v>79482</v>
+        <v>80966</v>
       </c>
     </row>
     <row r="1226" spans="1:9" x14ac:dyDescent="0.25">
@@ -40002,28 +40005,28 @@
         <v>1230</v>
       </c>
       <c r="B1226" s="19">
-        <v>12266</v>
+        <v>14136</v>
       </c>
       <c r="C1226" s="19">
-        <v>64039</v>
+        <v>73539</v>
       </c>
       <c r="D1226" s="19">
-        <v>5221</v>
+        <v>5202</v>
       </c>
       <c r="E1226" s="18">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F1226" s="18">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="G1226" s="19">
-        <v>4780</v>
+        <v>4665</v>
       </c>
       <c r="H1226" s="19">
-        <v>4398</v>
+        <v>4456</v>
       </c>
       <c r="I1226" s="19">
-        <v>69148</v>
+        <v>78675</v>
       </c>
     </row>
     <row r="1227" spans="1:9" x14ac:dyDescent="0.25">
@@ -40031,42 +40034,71 @@
         <v>1231</v>
       </c>
       <c r="B1227" s="19">
-        <v>6676</v>
+        <v>8862</v>
       </c>
       <c r="C1227" s="19">
-        <v>36581</v>
+        <v>46418</v>
       </c>
       <c r="D1227" s="19">
-        <v>5480</v>
+        <v>5238</v>
       </c>
       <c r="E1227" s="18">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1227" s="18">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="G1227" s="19">
-        <v>5881</v>
+        <v>5949</v>
       </c>
       <c r="H1227" s="19">
-        <v>7231</v>
+        <v>9328</v>
       </c>
       <c r="I1227" s="19">
-        <v>44267</v>
+        <v>56212</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1228" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1228" s="19">
+        <v>5125</v>
+      </c>
+      <c r="C1228" s="19">
+        <v>27934</v>
+      </c>
+      <c r="D1228" s="19">
+        <v>5450</v>
+      </c>
+      <c r="E1228" s="18">
+        <v>40</v>
+      </c>
+      <c r="F1228" s="18">
+        <v>186</v>
+      </c>
+      <c r="G1228" s="19">
+        <v>4716</v>
+      </c>
+      <c r="H1228" s="19">
+        <v>3683</v>
+      </c>
+      <c r="I1228" s="19">
+        <v>31803</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EDAD84-1E81-4F28-88C5-B4F04A8D00EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3FF907-FB3A-4858-8B94-3F9B755CC538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="1236">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3742,6 +3742,9 @@
   </si>
   <si>
     <t>08/06/2025 al 14/06/2025</t>
+  </si>
+  <si>
+    <t>15/06/2025 al 21/06/2025</t>
   </si>
 </sst>
 </file>
@@ -3987,13 +3990,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4316,11 +4319,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1230"/>
+  <dimension ref="A1:P1231"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1237" sqref="F1237"/>
+      <pane ySplit="6" topLeftCell="A1223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1230" sqref="K1230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4430,11 +4433,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4448,28 +4451,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4479,14 +4482,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -39043,10 +39046,10 @@
         <v>5653</v>
       </c>
       <c r="H1192" s="19">
-        <v>4925</v>
+        <v>4924</v>
       </c>
       <c r="I1192" s="19">
-        <v>57307</v>
+        <v>57306</v>
       </c>
     </row>
     <row r="1193" spans="1:9" x14ac:dyDescent="0.25">
@@ -39162,7 +39165,7 @@
         <v>6505</v>
       </c>
       <c r="I1196" s="19">
-        <v>48921</v>
+        <v>48920</v>
       </c>
     </row>
     <row r="1197" spans="1:9" x14ac:dyDescent="0.25">
@@ -39220,7 +39223,7 @@
         <v>5176</v>
       </c>
       <c r="I1198" s="19">
-        <v>47673</v>
+        <v>47672</v>
       </c>
     </row>
     <row r="1199" spans="1:9" x14ac:dyDescent="0.25">
@@ -39289,7 +39292,7 @@
         <v>14086</v>
       </c>
       <c r="C1201" s="19">
-        <v>69580</v>
+        <v>69577</v>
       </c>
       <c r="D1201" s="19">
         <v>4940</v>
@@ -39307,7 +39310,7 @@
         <v>8028</v>
       </c>
       <c r="I1201" s="19">
-        <v>79235</v>
+        <v>79232</v>
       </c>
     </row>
     <row r="1202" spans="1:9" x14ac:dyDescent="0.25">
@@ -39463,7 +39466,7 @@
         <v>8228</v>
       </c>
       <c r="C1207" s="19">
-        <v>40004</v>
+        <v>40003</v>
       </c>
       <c r="D1207" s="19">
         <v>4862</v>
@@ -39481,7 +39484,7 @@
         <v>6375</v>
       </c>
       <c r="I1207" s="19">
-        <v>49131</v>
+        <v>49130</v>
       </c>
     </row>
     <row r="1208" spans="1:9" x14ac:dyDescent="0.25">
@@ -39492,7 +39495,7 @@
         <v>8772</v>
       </c>
       <c r="C1208" s="19">
-        <v>39761</v>
+        <v>39760</v>
       </c>
       <c r="D1208" s="19">
         <v>4533</v>
@@ -39510,7 +39513,7 @@
         <v>5834</v>
       </c>
       <c r="I1208" s="19">
-        <v>47416</v>
+        <v>47415</v>
       </c>
     </row>
     <row r="1209" spans="1:9" x14ac:dyDescent="0.25">
@@ -39626,7 +39629,7 @@
         <v>8680</v>
       </c>
       <c r="I1212" s="19">
-        <v>76587</v>
+        <v>76586</v>
       </c>
     </row>
     <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
@@ -39655,7 +39658,7 @@
         <v>9512</v>
       </c>
       <c r="I1213" s="19">
-        <v>72097</v>
+        <v>72096</v>
       </c>
     </row>
     <row r="1214" spans="1:9" x14ac:dyDescent="0.25">
@@ -39713,7 +39716,7 @@
         <v>8798</v>
       </c>
       <c r="I1215" s="19">
-        <v>77258</v>
+        <v>77257</v>
       </c>
     </row>
     <row r="1216" spans="1:9" x14ac:dyDescent="0.25">
@@ -39724,7 +39727,7 @@
         <v>7605</v>
       </c>
       <c r="C1216" s="19">
-        <v>35980</v>
+        <v>35979</v>
       </c>
       <c r="D1216" s="19">
         <v>4731</v>
@@ -39742,7 +39745,7 @@
         <v>12104</v>
       </c>
       <c r="I1216" s="19">
-        <v>49182</v>
+        <v>49181</v>
       </c>
     </row>
     <row r="1217" spans="1:9" x14ac:dyDescent="0.25">
@@ -39771,7 +39774,7 @@
         <v>18329</v>
       </c>
       <c r="I1217" s="19">
-        <v>62644</v>
+        <v>62643</v>
       </c>
     </row>
     <row r="1218" spans="1:9" x14ac:dyDescent="0.25">
@@ -39811,7 +39814,7 @@
         <v>12252</v>
       </c>
       <c r="C1219" s="19">
-        <v>57610</v>
+        <v>57609</v>
       </c>
       <c r="D1219" s="19">
         <v>4702</v>
@@ -39869,10 +39872,10 @@
         <v>11330</v>
       </c>
       <c r="C1221" s="19">
-        <v>52186</v>
+        <v>52239</v>
       </c>
       <c r="D1221" s="19">
-        <v>4606</v>
+        <v>4611</v>
       </c>
       <c r="E1221" s="18">
         <v>343</v>
@@ -39887,7 +39890,7 @@
         <v>8417</v>
       </c>
       <c r="I1221" s="19">
-        <v>62265</v>
+        <v>62317</v>
       </c>
     </row>
     <row r="1222" spans="1:9" x14ac:dyDescent="0.25">
@@ -39945,7 +39948,7 @@
         <v>8193</v>
       </c>
       <c r="I1223" s="19">
-        <v>64161</v>
+        <v>64162</v>
       </c>
     </row>
     <row r="1224" spans="1:9" x14ac:dyDescent="0.25">
@@ -39985,10 +39988,10 @@
         <v>14283</v>
       </c>
       <c r="C1225" s="19">
-        <v>70795</v>
+        <v>70792</v>
       </c>
       <c r="D1225" s="19">
-        <v>4957</v>
+        <v>4956</v>
       </c>
       <c r="E1225" s="18">
         <v>163</v>
@@ -40003,7 +40006,7 @@
         <v>9492</v>
       </c>
       <c r="I1225" s="19">
-        <v>80987</v>
+        <v>80984</v>
       </c>
     </row>
     <row r="1226" spans="1:9" x14ac:dyDescent="0.25">
@@ -40029,7 +40032,7 @@
         <v>4665</v>
       </c>
       <c r="H1226" s="19">
-        <v>4774</v>
+        <v>4775</v>
       </c>
       <c r="I1226" s="19">
         <v>80286</v>
@@ -40040,13 +40043,13 @@
         <v>1231</v>
       </c>
       <c r="B1227" s="19">
-        <v>10707</v>
+        <v>10670</v>
       </c>
       <c r="C1227" s="19">
-        <v>54914</v>
+        <v>54802</v>
       </c>
       <c r="D1227" s="19">
-        <v>5129</v>
+        <v>5136</v>
       </c>
       <c r="E1227" s="18">
         <v>78</v>
@@ -40058,10 +40061,10 @@
         <v>5949</v>
       </c>
       <c r="H1227" s="19">
-        <v>10402</v>
+        <v>11492</v>
       </c>
       <c r="I1227" s="19">
-        <v>65782</v>
+        <v>66760</v>
       </c>
     </row>
     <row r="1228" spans="1:9" x14ac:dyDescent="0.25">
@@ -40069,13 +40072,13 @@
         <v>1232</v>
       </c>
       <c r="B1228" s="19">
-        <v>9432</v>
+        <v>9157</v>
       </c>
       <c r="C1228" s="19">
-        <v>48429</v>
+        <v>47655</v>
       </c>
       <c r="D1228" s="19">
-        <v>5134</v>
+        <v>5204</v>
       </c>
       <c r="E1228" s="18">
         <v>40</v>
@@ -40087,10 +40090,10 @@
         <v>4716</v>
       </c>
       <c r="H1228" s="19">
-        <v>5408</v>
+        <v>5343</v>
       </c>
       <c r="I1228" s="19">
-        <v>54023</v>
+        <v>53184</v>
       </c>
     </row>
     <row r="1229" spans="1:9" x14ac:dyDescent="0.25">
@@ -40098,28 +40101,28 @@
         <v>1233</v>
       </c>
       <c r="B1229" s="19">
-        <v>11008</v>
+        <v>12353</v>
       </c>
       <c r="C1229" s="19">
-        <v>52252</v>
+        <v>58192</v>
       </c>
       <c r="D1229" s="19">
-        <v>4747</v>
+        <v>4711</v>
       </c>
       <c r="E1229" s="18">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="F1229" s="19">
-        <v>1090</v>
+        <v>1287</v>
       </c>
       <c r="G1229" s="19">
-        <v>5201</v>
+        <v>5317</v>
       </c>
       <c r="H1229" s="19">
-        <v>13654</v>
+        <v>14726</v>
       </c>
       <c r="I1229" s="19">
-        <v>66996</v>
+        <v>74205</v>
       </c>
     </row>
     <row r="1230" spans="1:9" x14ac:dyDescent="0.25">
@@ -40127,42 +40130,71 @@
         <v>1234</v>
       </c>
       <c r="B1230" s="19">
-        <v>5641</v>
+        <v>9681</v>
       </c>
       <c r="C1230" s="19">
-        <v>28034</v>
+        <v>45992</v>
       </c>
       <c r="D1230" s="19">
-        <v>4969</v>
+        <v>4751</v>
       </c>
       <c r="E1230" s="18">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="F1230" s="19">
-        <v>1695</v>
+        <v>1876</v>
       </c>
       <c r="G1230" s="19">
-        <v>8239</v>
+        <v>8040</v>
       </c>
       <c r="H1230" s="19">
-        <v>5799</v>
+        <v>9321</v>
       </c>
       <c r="I1230" s="19">
-        <v>35528</v>
+        <v>57189</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1231" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1231" s="19">
+        <v>4741</v>
+      </c>
+      <c r="C1231" s="19">
+        <v>25062</v>
+      </c>
+      <c r="D1231" s="19">
+        <v>5286</v>
+      </c>
+      <c r="E1231" s="18">
+        <v>55</v>
+      </c>
+      <c r="F1231" s="18">
+        <v>360</v>
+      </c>
+      <c r="G1231" s="19">
+        <v>6591</v>
+      </c>
+      <c r="H1231" s="19">
+        <v>3569</v>
+      </c>
+      <c r="I1231" s="19">
+        <v>28992</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3FF907-FB3A-4858-8B94-3F9B755CC538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27EDBE6-986C-42A3-97B5-377EFE957B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
   <sheets>
     <sheet name="IMPRIMIR" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="1237">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3745,6 +3745,9 @@
   </si>
   <si>
     <t>15/06/2025 al 21/06/2025</t>
+  </si>
+  <si>
+    <t>22/06/2025 al 28/06/2025</t>
   </si>
 </sst>
 </file>
@@ -3990,13 +3993,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4319,11 +4322,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1231"/>
+  <dimension ref="A1:P1232"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1230" sqref="K1230"/>
+      <pane ySplit="6" topLeftCell="A1204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1217" sqref="K1217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4433,11 +4436,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4451,28 +4454,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4482,14 +4485,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -40003,10 +40006,10 @@
         <v>4284</v>
       </c>
       <c r="H1225" s="19">
-        <v>9492</v>
+        <v>9490</v>
       </c>
       <c r="I1225" s="19">
-        <v>80984</v>
+        <v>80983</v>
       </c>
     </row>
     <row r="1226" spans="1:9" x14ac:dyDescent="0.25">
@@ -40072,13 +40075,13 @@
         <v>1232</v>
       </c>
       <c r="B1228" s="19">
-        <v>9157</v>
+        <v>9047</v>
       </c>
       <c r="C1228" s="19">
-        <v>47655</v>
+        <v>47335</v>
       </c>
       <c r="D1228" s="19">
-        <v>5204</v>
+        <v>5232</v>
       </c>
       <c r="E1228" s="18">
         <v>40</v>
@@ -40090,10 +40093,10 @@
         <v>4716</v>
       </c>
       <c r="H1228" s="19">
-        <v>5343</v>
+        <v>5377</v>
       </c>
       <c r="I1228" s="19">
-        <v>53184</v>
+        <v>52899</v>
       </c>
     </row>
     <row r="1229" spans="1:9" x14ac:dyDescent="0.25">
@@ -40101,28 +40104,28 @@
         <v>1233</v>
       </c>
       <c r="B1229" s="19">
-        <v>12353</v>
+        <v>12688</v>
       </c>
       <c r="C1229" s="19">
-        <v>58192</v>
+        <v>60037</v>
       </c>
       <c r="D1229" s="19">
-        <v>4711</v>
+        <v>4732</v>
       </c>
       <c r="E1229" s="18">
         <v>242</v>
       </c>
       <c r="F1229" s="19">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="G1229" s="19">
-        <v>5317</v>
+        <v>5300</v>
       </c>
       <c r="H1229" s="19">
-        <v>14726</v>
+        <v>14747</v>
       </c>
       <c r="I1229" s="19">
-        <v>74205</v>
+        <v>76068</v>
       </c>
     </row>
     <row r="1230" spans="1:9" x14ac:dyDescent="0.25">
@@ -40130,13 +40133,13 @@
         <v>1234</v>
       </c>
       <c r="B1230" s="19">
-        <v>9681</v>
+        <v>10981</v>
       </c>
       <c r="C1230" s="19">
-        <v>45992</v>
+        <v>52690</v>
       </c>
       <c r="D1230" s="19">
-        <v>4751</v>
+        <v>4798</v>
       </c>
       <c r="E1230" s="18">
         <v>233</v>
@@ -40148,10 +40151,10 @@
         <v>8040</v>
       </c>
       <c r="H1230" s="19">
-        <v>9321</v>
+        <v>10225</v>
       </c>
       <c r="I1230" s="19">
-        <v>57189</v>
+        <v>64790</v>
       </c>
     </row>
     <row r="1231" spans="1:9" x14ac:dyDescent="0.25">
@@ -40159,42 +40162,71 @@
         <v>1235</v>
       </c>
       <c r="B1231" s="19">
-        <v>4741</v>
+        <v>7195</v>
       </c>
       <c r="C1231" s="19">
-        <v>25062</v>
+        <v>36328</v>
       </c>
       <c r="D1231" s="19">
-        <v>5286</v>
+        <v>5049</v>
       </c>
       <c r="E1231" s="18">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="F1231" s="18">
-        <v>360</v>
+        <v>757</v>
       </c>
       <c r="G1231" s="19">
-        <v>6591</v>
+        <v>5381</v>
       </c>
       <c r="H1231" s="19">
-        <v>3569</v>
+        <v>5378</v>
       </c>
       <c r="I1231" s="19">
-        <v>28992</v>
+        <v>42462</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1232" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1232" s="19">
+        <v>2615</v>
+      </c>
+      <c r="C1232" s="19">
+        <v>15144</v>
+      </c>
+      <c r="D1232" s="19">
+        <v>5792</v>
+      </c>
+      <c r="E1232" s="18">
+        <v>67</v>
+      </c>
+      <c r="F1232" s="18">
+        <v>445</v>
+      </c>
+      <c r="G1232" s="19">
+        <v>6610</v>
+      </c>
+      <c r="H1232" s="19">
+        <v>5042</v>
+      </c>
+      <c r="I1232" s="19">
+        <v>20631</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27EDBE6-986C-42A3-97B5-377EFE957B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F079553-8A39-4BA8-A839-2422C329750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="1238">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3748,6 +3748,9 @@
   </si>
   <si>
     <t>22/06/2025 al 28/06/2025</t>
+  </si>
+  <si>
+    <t>29/06/2025 al 05/07/2025</t>
   </si>
 </sst>
 </file>
@@ -3993,13 +3996,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4322,11 +4325,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1232"/>
+  <dimension ref="A1:P1233"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A1204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1217" sqref="K1217"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4436,11 +4439,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4454,28 +4457,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4485,14 +4488,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -39382,7 +39385,7 @@
         <v>9824</v>
       </c>
       <c r="C1204" s="19">
-        <v>45907</v>
+        <v>45904</v>
       </c>
       <c r="D1204" s="19">
         <v>4673</v>
@@ -39400,7 +39403,7 @@
         <v>6090</v>
       </c>
       <c r="I1204" s="19">
-        <v>52910</v>
+        <v>52906</v>
       </c>
     </row>
     <row r="1205" spans="1:9" x14ac:dyDescent="0.25">
@@ -39556,7 +39559,7 @@
         <v>7934</v>
       </c>
       <c r="C1210" s="19">
-        <v>38365</v>
+        <v>38364</v>
       </c>
       <c r="D1210" s="19">
         <v>4835</v>
@@ -39614,7 +39617,7 @@
         <v>14592</v>
       </c>
       <c r="C1212" s="19">
-        <v>65735</v>
+        <v>65734</v>
       </c>
       <c r="D1212" s="19">
         <v>4505</v>
@@ -39632,7 +39635,7 @@
         <v>8680</v>
       </c>
       <c r="I1212" s="19">
-        <v>76586</v>
+        <v>76585</v>
       </c>
     </row>
     <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
@@ -39643,7 +39646,7 @@
         <v>13448</v>
       </c>
       <c r="C1213" s="19">
-        <v>60867</v>
+        <v>60866</v>
       </c>
       <c r="D1213" s="19">
         <v>4526</v>
@@ -40006,10 +40009,10 @@
         <v>4284</v>
       </c>
       <c r="H1225" s="19">
-        <v>9490</v>
+        <v>9488</v>
       </c>
       <c r="I1225" s="19">
-        <v>80983</v>
+        <v>80980</v>
       </c>
     </row>
     <row r="1226" spans="1:9" x14ac:dyDescent="0.25">
@@ -40078,10 +40081,10 @@
         <v>9047</v>
       </c>
       <c r="C1228" s="19">
-        <v>47335</v>
+        <v>47308</v>
       </c>
       <c r="D1228" s="19">
-        <v>5232</v>
+        <v>5229</v>
       </c>
       <c r="E1228" s="18">
         <v>40</v>
@@ -40096,7 +40099,7 @@
         <v>5377</v>
       </c>
       <c r="I1228" s="19">
-        <v>52899</v>
+        <v>52871</v>
       </c>
     </row>
     <row r="1229" spans="1:9" x14ac:dyDescent="0.25">
@@ -40104,28 +40107,28 @@
         <v>1233</v>
       </c>
       <c r="B1229" s="19">
-        <v>12688</v>
+        <v>12581</v>
       </c>
       <c r="C1229" s="19">
-        <v>60037</v>
+        <v>59700</v>
       </c>
       <c r="D1229" s="19">
-        <v>4732</v>
+        <v>4745</v>
       </c>
       <c r="E1229" s="18">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="F1229" s="19">
-        <v>1283</v>
+        <v>1024</v>
       </c>
       <c r="G1229" s="19">
-        <v>5300</v>
+        <v>5229</v>
       </c>
       <c r="H1229" s="19">
         <v>14747</v>
       </c>
       <c r="I1229" s="19">
-        <v>76068</v>
+        <v>75471</v>
       </c>
     </row>
     <row r="1230" spans="1:9" x14ac:dyDescent="0.25">
@@ -40133,28 +40136,28 @@
         <v>1234</v>
       </c>
       <c r="B1230" s="19">
-        <v>10981</v>
+        <v>11488</v>
       </c>
       <c r="C1230" s="19">
-        <v>52690</v>
+        <v>55241</v>
       </c>
       <c r="D1230" s="19">
-        <v>4798</v>
+        <v>4809</v>
       </c>
       <c r="E1230" s="18">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="F1230" s="19">
-        <v>1876</v>
+        <v>1952</v>
       </c>
       <c r="G1230" s="19">
-        <v>8040</v>
+        <v>7661</v>
       </c>
       <c r="H1230" s="19">
-        <v>10225</v>
+        <v>10780</v>
       </c>
       <c r="I1230" s="19">
-        <v>64790</v>
+        <v>67974</v>
       </c>
     </row>
     <row r="1231" spans="1:9" x14ac:dyDescent="0.25">
@@ -40162,28 +40165,28 @@
         <v>1235</v>
       </c>
       <c r="B1231" s="19">
-        <v>7195</v>
+        <v>8972</v>
       </c>
       <c r="C1231" s="19">
-        <v>36328</v>
+        <v>44335</v>
       </c>
       <c r="D1231" s="19">
-        <v>5049</v>
+        <v>4941</v>
       </c>
       <c r="E1231" s="18">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="F1231" s="18">
-        <v>757</v>
+        <v>911</v>
       </c>
       <c r="G1231" s="19">
-        <v>5381</v>
+        <v>5508</v>
       </c>
       <c r="H1231" s="19">
-        <v>5378</v>
+        <v>6345</v>
       </c>
       <c r="I1231" s="19">
-        <v>42462</v>
+        <v>51591</v>
       </c>
     </row>
     <row r="1232" spans="1:9" x14ac:dyDescent="0.25">
@@ -40191,42 +40194,71 @@
         <v>1236</v>
       </c>
       <c r="B1232" s="19">
-        <v>2615</v>
+        <v>5571</v>
       </c>
       <c r="C1232" s="19">
-        <v>15144</v>
+        <v>28632</v>
       </c>
       <c r="D1232" s="19">
-        <v>5792</v>
+        <v>5140</v>
       </c>
       <c r="E1232" s="18">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F1232" s="18">
-        <v>445</v>
+        <v>558</v>
       </c>
       <c r="G1232" s="19">
-        <v>6610</v>
+        <v>6253</v>
       </c>
       <c r="H1232" s="19">
-        <v>5042</v>
+        <v>6828</v>
       </c>
       <c r="I1232" s="19">
-        <v>20631</v>
+        <v>36018</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1233" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1233" s="19">
+        <v>6731</v>
+      </c>
+      <c r="C1233" s="19">
+        <v>37593</v>
+      </c>
+      <c r="D1233" s="19">
+        <v>5585</v>
+      </c>
+      <c r="E1233" s="18">
+        <v>123</v>
+      </c>
+      <c r="F1233" s="18">
+        <v>738</v>
+      </c>
+      <c r="G1233" s="19">
+        <v>5979</v>
+      </c>
+      <c r="H1233" s="19">
+        <v>8676</v>
+      </c>
+      <c r="I1233" s="19">
+        <v>47007</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F079553-8A39-4BA8-A839-2422C329750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD987E4-5A1B-4969-B9E2-94523FCEC9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="1239">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3751,6 +3751,9 @@
   </si>
   <si>
     <t>29/06/2025 al 05/07/2025</t>
+  </si>
+  <si>
+    <t>06/07/2025 al 12/07/2025</t>
   </si>
 </sst>
 </file>
@@ -3996,13 +3999,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4325,11 +4328,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1233"/>
+  <dimension ref="A1:P1234"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomLeft" activeCell="G1218" sqref="G1218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4439,11 +4442,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4457,28 +4460,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4488,14 +4491,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -39545,10 +39548,10 @@
         <v>6097</v>
       </c>
       <c r="H1209" s="19">
-        <v>4864</v>
+        <v>4850</v>
       </c>
       <c r="I1209" s="19">
-        <v>41175</v>
+        <v>41161</v>
       </c>
     </row>
     <row r="1210" spans="1:9" x14ac:dyDescent="0.25">
@@ -39875,13 +39878,13 @@
         <v>1225</v>
       </c>
       <c r="B1221" s="19">
-        <v>11330</v>
+        <v>11294</v>
       </c>
       <c r="C1221" s="19">
-        <v>52239</v>
+        <v>52132</v>
       </c>
       <c r="D1221" s="19">
-        <v>4611</v>
+        <v>4616</v>
       </c>
       <c r="E1221" s="18">
         <v>343</v>
@@ -39896,7 +39899,7 @@
         <v>8417</v>
       </c>
       <c r="I1221" s="19">
-        <v>62317</v>
+        <v>62211</v>
       </c>
     </row>
     <row r="1222" spans="1:9" x14ac:dyDescent="0.25">
@@ -39994,7 +39997,7 @@
         <v>14283</v>
       </c>
       <c r="C1225" s="19">
-        <v>70792</v>
+        <v>70791</v>
       </c>
       <c r="D1225" s="19">
         <v>4956</v>
@@ -40012,7 +40015,7 @@
         <v>9488</v>
       </c>
       <c r="I1225" s="19">
-        <v>80980</v>
+        <v>80978</v>
       </c>
     </row>
     <row r="1226" spans="1:9" x14ac:dyDescent="0.25">
@@ -40049,13 +40052,13 @@
         <v>1231</v>
       </c>
       <c r="B1227" s="19">
-        <v>10670</v>
+        <v>10630</v>
       </c>
       <c r="C1227" s="19">
-        <v>54802</v>
+        <v>54547</v>
       </c>
       <c r="D1227" s="19">
-        <v>5136</v>
+        <v>5131</v>
       </c>
       <c r="E1227" s="18">
         <v>78</v>
@@ -40070,7 +40073,7 @@
         <v>11492</v>
       </c>
       <c r="I1227" s="19">
-        <v>66760</v>
+        <v>66504</v>
       </c>
     </row>
     <row r="1228" spans="1:9" x14ac:dyDescent="0.25">
@@ -40107,13 +40110,13 @@
         <v>1233</v>
       </c>
       <c r="B1229" s="19">
-        <v>12581</v>
+        <v>12503</v>
       </c>
       <c r="C1229" s="19">
-        <v>59700</v>
+        <v>59241</v>
       </c>
       <c r="D1229" s="19">
-        <v>4745</v>
+        <v>4738</v>
       </c>
       <c r="E1229" s="18">
         <v>196</v>
@@ -40128,7 +40131,7 @@
         <v>14747</v>
       </c>
       <c r="I1229" s="19">
-        <v>75471</v>
+        <v>75012</v>
       </c>
     </row>
     <row r="1230" spans="1:9" x14ac:dyDescent="0.25">
@@ -40136,13 +40139,13 @@
         <v>1234</v>
       </c>
       <c r="B1230" s="19">
-        <v>11488</v>
+        <v>11414</v>
       </c>
       <c r="C1230" s="19">
-        <v>55241</v>
+        <v>55035</v>
       </c>
       <c r="D1230" s="19">
-        <v>4809</v>
+        <v>4822</v>
       </c>
       <c r="E1230" s="18">
         <v>255</v>
@@ -40157,7 +40160,7 @@
         <v>10780</v>
       </c>
       <c r="I1230" s="19">
-        <v>67974</v>
+        <v>67767</v>
       </c>
     </row>
     <row r="1231" spans="1:9" x14ac:dyDescent="0.25">
@@ -40165,13 +40168,13 @@
         <v>1235</v>
       </c>
       <c r="B1231" s="19">
-        <v>8972</v>
+        <v>9446</v>
       </c>
       <c r="C1231" s="19">
-        <v>44335</v>
+        <v>46481</v>
       </c>
       <c r="D1231" s="19">
-        <v>4941</v>
+        <v>4921</v>
       </c>
       <c r="E1231" s="18">
         <v>165</v>
@@ -40183,10 +40186,10 @@
         <v>5508</v>
       </c>
       <c r="H1231" s="19">
-        <v>6345</v>
+        <v>6766</v>
       </c>
       <c r="I1231" s="19">
-        <v>51591</v>
+        <v>54157</v>
       </c>
     </row>
     <row r="1232" spans="1:9" x14ac:dyDescent="0.25">
@@ -40194,28 +40197,28 @@
         <v>1236</v>
       </c>
       <c r="B1232" s="19">
-        <v>5571</v>
+        <v>7297</v>
       </c>
       <c r="C1232" s="19">
-        <v>28632</v>
+        <v>36129</v>
       </c>
       <c r="D1232" s="19">
-        <v>5140</v>
+        <v>4951</v>
       </c>
       <c r="E1232" s="18">
         <v>89</v>
       </c>
       <c r="F1232" s="18">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G1232" s="19">
-        <v>6253</v>
+        <v>6233</v>
       </c>
       <c r="H1232" s="19">
-        <v>6828</v>
+        <v>8231</v>
       </c>
       <c r="I1232" s="19">
-        <v>36018</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="1233" spans="1:9" x14ac:dyDescent="0.25">
@@ -40223,42 +40226,71 @@
         <v>1237</v>
       </c>
       <c r="B1233" s="19">
-        <v>6731</v>
+        <v>11464</v>
       </c>
       <c r="C1233" s="19">
-        <v>37593</v>
+        <v>59615</v>
       </c>
       <c r="D1233" s="19">
-        <v>5585</v>
+        <v>5200</v>
       </c>
       <c r="E1233" s="18">
-        <v>123</v>
-      </c>
-      <c r="F1233" s="18">
-        <v>738</v>
+        <v>204</v>
+      </c>
+      <c r="F1233" s="19">
+        <v>1097</v>
       </c>
       <c r="G1233" s="19">
-        <v>5979</v>
+        <v>5367</v>
       </c>
       <c r="H1233" s="19">
-        <v>8676</v>
+        <v>11672</v>
       </c>
       <c r="I1233" s="19">
-        <v>47007</v>
+        <v>72384</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1234" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1234" s="19">
+        <v>3656</v>
+      </c>
+      <c r="C1234" s="19">
+        <v>17401</v>
+      </c>
+      <c r="D1234" s="19">
+        <v>4759</v>
+      </c>
+      <c r="E1234" s="18">
+        <v>45</v>
+      </c>
+      <c r="F1234" s="18">
+        <v>221</v>
+      </c>
+      <c r="G1234" s="19">
+        <v>4865</v>
+      </c>
+      <c r="H1234" s="19">
+        <v>2908</v>
+      </c>
+      <c r="I1234" s="19">
+        <v>20530</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/econuy_extras/retrieval/precios.xlsx
+++ b/econuy_extras/retrieval/precios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\OTROS INFORMES WEB\10_Precios y Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD987E4-5A1B-4969-B9E2-94523FCEC9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3C9AAA-C1C4-436E-B192-EDC88C26EF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E359447F-472C-418B-905F-92F428CE3B36}"/>
   </bookViews>
   <sheets>
     <sheet name="IMPRIMIR" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1240">
   <si>
     <t>Miles de U$S</t>
   </si>
@@ -3754,6 +3754,9 @@
   </si>
   <si>
     <t>06/07/2025 al 12/07/2025</t>
+  </si>
+  <si>
+    <t>13/07/2025 al 19/07/2025</t>
   </si>
 </sst>
 </file>
@@ -3999,13 +4002,13 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4328,11 +4331,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFDFD6E-37A0-401C-83DB-F96146D9E06F}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P1234"/>
+  <dimension ref="A1:P1235"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1218" sqref="G1218"/>
+      <pane ySplit="6" topLeftCell="A1230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1242" sqref="J1242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4442,11 +4445,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4460,28 +4463,28 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
@@ -4491,14 +4494,14 @@
       <c r="A6" s="2">
         <v>0</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="L6" s="12"/>
       <c r="N6" s="12"/>
     </row>
@@ -37918,16 +37921,16 @@
         <v>620</v>
       </c>
       <c r="F1153" s="19">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="G1153" s="19">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="H1153" s="19">
         <v>6108</v>
       </c>
       <c r="I1153" s="19">
-        <v>69563</v>
+        <v>69561</v>
       </c>
     </row>
     <row r="1154" spans="1:9" x14ac:dyDescent="0.25">
@@ -38034,16 +38037,16 @@
         <v>375</v>
       </c>
       <c r="F1157" s="19">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="G1157" s="19">
-        <v>4004</v>
+        <v>3982</v>
       </c>
       <c r="H1157" s="19">
         <v>6213</v>
       </c>
       <c r="I1157" s="19">
-        <v>49706</v>
+        <v>49698</v>
       </c>
     </row>
     <row r="1158" spans="1:9" x14ac:dyDescent="0.25">
@@ -38112,10 +38115,10 @@
         <v>10455</v>
       </c>
       <c r="C1160" s="19">
-        <v>42539</v>
+        <v>42517</v>
       </c>
       <c r="D1160" s="19">
-        <v>4069</v>
+        <v>4067</v>
       </c>
       <c r="E1160" s="18">
         <v>361</v>
@@ -38130,7 +38133,7 @@
         <v>14336</v>
       </c>
       <c r="I1160" s="19">
-        <v>58225</v>
+        <v>58202</v>
       </c>
     </row>
     <row r="1161" spans="1:9" x14ac:dyDescent="0.25">
@@ -38788,16 +38791,16 @@
         <v>126</v>
       </c>
       <c r="F1183" s="18">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="G1183" s="19">
-        <v>4646</v>
+        <v>4503</v>
       </c>
       <c r="H1183" s="19">
         <v>3368</v>
       </c>
       <c r="I1183" s="19">
-        <v>37501</v>
+        <v>37483</v>
       </c>
     </row>
     <row r="1184" spans="1:9" x14ac:dyDescent="0.25">
@@ -39049,16 +39052,16 @@
         <v>99</v>
       </c>
       <c r="F1192" s="18">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G1192" s="19">
-        <v>5653</v>
+        <v>5530</v>
       </c>
       <c r="H1192" s="19">
         <v>4924</v>
       </c>
       <c r="I1192" s="19">
-        <v>57306</v>
+        <v>57294</v>
       </c>
     </row>
     <row r="1193" spans="1:9" x14ac:dyDescent="0.25">
@@ -39084,10 +39087,10 @@
         <v>4494</v>
       </c>
       <c r="H1193" s="19">
-        <v>3702</v>
+        <v>3684</v>
       </c>
       <c r="I1193" s="19">
-        <v>37705</v>
+        <v>37687</v>
       </c>
     </row>
     <row r="1194" spans="1:9" x14ac:dyDescent="0.25">
@@ -39243,7 +39246,7 @@
         <v>9752</v>
       </c>
       <c r="C1199" s="19">
-        <v>43477</v>
+        <v>43476</v>
       </c>
       <c r="D1199" s="19">
         <v>4458</v>
@@ -39261,7 +39264,7 @@
         <v>19077</v>
       </c>
       <c r="I1199" s="19">
-        <v>64231</v>
+        <v>64230</v>
       </c>
     </row>
     <row r="1200" spans="1:9" x14ac:dyDescent="0.25">
@@ -39301,10 +39304,10 @@
         <v>14086</v>
       </c>
       <c r="C1201" s="19">
-        <v>69577</v>
+        <v>69576</v>
       </c>
       <c r="D1201" s="19">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="E1201" s="18">
         <v>368</v>
@@ -39319,7 +39322,7 @@
         <v>8028</v>
       </c>
       <c r="I1201" s="19">
-        <v>79232</v>
+        <v>79230</v>
       </c>
     </row>
     <row r="1202" spans="1:9" x14ac:dyDescent="0.25">
@@ -39330,7 +39333,7 @@
         <v>17313</v>
       </c>
       <c r="C1202" s="19">
-        <v>73865</v>
+        <v>73864</v>
       </c>
       <c r="D1202" s="19">
         <v>4266</v>
@@ -39348,7 +39351,7 @@
         <v>10983</v>
       </c>
       <c r="I1202" s="19">
-        <v>86734</v>
+        <v>86733</v>
       </c>
     </row>
     <row r="1203" spans="1:9" x14ac:dyDescent="0.25">
@@ -39359,10 +39362,10 @@
         <v>7282</v>
       </c>
       <c r="C1203" s="19">
-        <v>32219</v>
+        <v>32217</v>
       </c>
       <c r="D1203" s="19">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="E1203" s="18">
         <v>237</v>
@@ -39377,7 +39380,7 @@
         <v>13732</v>
       </c>
       <c r="I1203" s="19">
-        <v>47022</v>
+        <v>47020</v>
       </c>
     </row>
     <row r="1204" spans="1:9" x14ac:dyDescent="0.25">
@@ -39435,7 +39438,7 @@
         <v>8214</v>
       </c>
       <c r="I1205" s="19">
-        <v>54986</v>
+        <v>54985</v>
       </c>
     </row>
     <row r="1206" spans="1:9" x14ac:dyDescent="0.25">
@@ -39446,7 +39449,7 @@
         <v>8279</v>
       </c>
       <c r="C1206" s="19">
-        <v>39026</v>
+        <v>39025</v>
       </c>
       <c r="D1206" s="19">
         <v>4714</v>
@@ -39464,7 +39467,7 @@
         <v>9287</v>
       </c>
       <c r="I1206" s="19">
-        <v>49052</v>
+        <v>49051</v>
       </c>
     </row>
     <row r="1207" spans="1:9" x14ac:dyDescent="0.25">
@@ -39504,7 +39507,7 @@
         <v>8772</v>
       </c>
       <c r="C1208" s="19">
-        <v>39760</v>
+        <v>39759</v>
       </c>
       <c r="D1208" s="19">
         <v>4533</v>
@@ -39551,7 +39554,7 @@
         <v>4850</v>
       </c>
       <c r="I1209" s="19">
-        <v>41161</v>
+        <v>41160</v>
       </c>
     </row>
     <row r="1210" spans="1:9" x14ac:dyDescent="0.25">
@@ -39609,7 +39612,7 @@
         <v>10749</v>
       </c>
       <c r="I1211" s="19">
-        <v>57963</v>
+        <v>57962</v>
       </c>
     </row>
     <row r="1212" spans="1:9" x14ac:dyDescent="0.25">
@@ -39678,7 +39681,7 @@
         <v>9799</v>
       </c>
       <c r="C1214" s="19">
-        <v>51153</v>
+        <v>51149</v>
       </c>
       <c r="D1214" s="19">
         <v>5220</v>
@@ -39696,7 +39699,7 @@
         <v>3825</v>
       </c>
       <c r="I1214" s="19">
-        <v>55968</v>
+        <v>55963</v>
       </c>
     </row>
     <row r="1215" spans="1:9" x14ac:dyDescent="0.25">
@@ -39707,7 +39710,7 @@
         <v>13985</v>
       </c>
       <c r="C1215" s="19">
-        <v>66791</v>
+        <v>66789</v>
       </c>
       <c r="D1215" s="19">
         <v>4776</v>
@@ -39725,7 +39728,7 @@
         <v>8798</v>
       </c>
       <c r="I1215" s="19">
-        <v>77257</v>
+        <v>77256</v>
       </c>
     </row>
     <row r="1216" spans="1:9" x14ac:dyDescent="0.25">
@@ -39765,7 +39768,7 @@
         <v>8924</v>
       </c>
       <c r="C1217" s="19">
-        <v>42447</v>
+        <v>42446</v>
       </c>
       <c r="D1217" s="19">
         <v>4756</v>
@@ -39823,7 +39826,7 @@
         <v>12252</v>
       </c>
       <c r="C1219" s="19">
-        <v>57609</v>
+        <v>57608</v>
       </c>
       <c r="D1219" s="19">
         <v>4702</v>
@@ -39841,7 +39844,7 @@
         <v>10165</v>
       </c>
       <c r="I1219" s="19">
-        <v>68447</v>
+        <v>68446</v>
       </c>
     </row>
     <row r="1220" spans="1:9" x14ac:dyDescent="0.25">
@@ -39852,7 +39855,7 @@
         <v>10010</v>
       </c>
       <c r="C1220" s="19">
-        <v>48598</v>
+        <v>48596</v>
       </c>
       <c r="D1220" s="19">
         <v>4855</v>
@@ -39870,7 +39873,7 @@
         <v>3343</v>
       </c>
       <c r="I1220" s="19">
-        <v>53023</v>
+        <v>53021</v>
       </c>
     </row>
     <row r="1221" spans="1:9" x14ac:dyDescent="0.25">
@@ -39968,10 +39971,10 @@
         <v>10739</v>
       </c>
       <c r="C1224" s="19">
-        <v>51743</v>
+        <v>51763</v>
       </c>
       <c r="D1224" s="19">
-        <v>4818</v>
+        <v>4820</v>
       </c>
       <c r="E1224" s="18">
         <v>180</v>
@@ -39986,7 +39989,7 @@
         <v>14886</v>
       </c>
       <c r="I1224" s="19">
-        <v>67453</v>
+        <v>67473</v>
       </c>
     </row>
     <row r="1225" spans="1:9" x14ac:dyDescent="0.25">
@@ -40026,7 +40029,7 @@
         <v>14437</v>
       </c>
       <c r="C1226" s="19">
-        <v>74831</v>
+        <v>74830</v>
       </c>
       <c r="D1226" s="19">
         <v>5183</v>
@@ -40035,16 +40038,16 @@
         <v>146</v>
       </c>
       <c r="F1226" s="18">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G1226" s="19">
-        <v>4665</v>
+        <v>4645</v>
       </c>
       <c r="H1226" s="19">
         <v>4775</v>
       </c>
       <c r="I1226" s="19">
-        <v>80286</v>
+        <v>80282</v>
       </c>
     </row>
     <row r="1227" spans="1:9" x14ac:dyDescent="0.25">
@@ -40102,7 +40105,7 @@
         <v>5377</v>
       </c>
       <c r="I1228" s="19">
-        <v>52871</v>
+        <v>52872</v>
       </c>
     </row>
     <row r="1229" spans="1:9" x14ac:dyDescent="0.25">
@@ -40157,10 +40160,10 @@
         <v>7661</v>
       </c>
       <c r="H1230" s="19">
-        <v>10780</v>
+        <v>11184</v>
       </c>
       <c r="I1230" s="19">
-        <v>67767</v>
+        <v>68171</v>
       </c>
     </row>
     <row r="1231" spans="1:9" x14ac:dyDescent="0.25">
@@ -40168,13 +40171,13 @@
         <v>1235</v>
       </c>
       <c r="B1231" s="19">
-        <v>9446</v>
+        <v>9438</v>
       </c>
       <c r="C1231" s="19">
-        <v>46481</v>
+        <v>46409</v>
       </c>
       <c r="D1231" s="19">
-        <v>4921</v>
+        <v>4917</v>
       </c>
       <c r="E1231" s="18">
         <v>165</v>
@@ -40189,7 +40192,7 @@
         <v>6766</v>
       </c>
       <c r="I1231" s="19">
-        <v>54157</v>
+        <v>54086</v>
       </c>
     </row>
     <row r="1232" spans="1:9" x14ac:dyDescent="0.25">
@@ -40197,13 +40200,13 @@
         <v>1236</v>
       </c>
       <c r="B1232" s="19">
-        <v>7297</v>
+        <v>7222</v>
       </c>
       <c r="C1232" s="19">
-        <v>36129</v>
+        <v>35402</v>
       </c>
       <c r="D1232" s="19">
-        <v>4951</v>
+        <v>4902</v>
       </c>
       <c r="E1232" s="18">
         <v>89</v>
@@ -40215,10 +40218,10 @@
         <v>6233</v>
       </c>
       <c r="H1232" s="19">
-        <v>8231</v>
+        <v>8405</v>
       </c>
       <c r="I1232" s="19">
-        <v>44916</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="1233" spans="1:9" x14ac:dyDescent="0.25">
@@ -40226,28 +40229,28 @@
         <v>1237</v>
       </c>
       <c r="B1233" s="19">
-        <v>11464</v>
+        <v>13071</v>
       </c>
       <c r="C1233" s="19">
-        <v>59615</v>
+        <v>67652</v>
       </c>
       <c r="D1233" s="19">
-        <v>5200</v>
+        <v>5176</v>
       </c>
       <c r="E1233" s="18">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="F1233" s="19">
-        <v>1097</v>
+        <v>1190</v>
       </c>
       <c r="G1233" s="19">
-        <v>5367</v>
+        <v>5300</v>
       </c>
       <c r="H1233" s="19">
-        <v>11672</v>
+        <v>12417</v>
       </c>
       <c r="I1233" s="19">
-        <v>72384</v>
+        <v>81259</v>
       </c>
     </row>
     <row r="1234" spans="1:9" x14ac:dyDescent="0.25">
@@ -40255,42 +40258,71 @@
         <v>1238</v>
       </c>
       <c r="B1234" s="19">
-        <v>3656</v>
+        <v>6219</v>
       </c>
       <c r="C1234" s="19">
-        <v>17401</v>
+        <v>28261</v>
       </c>
       <c r="D1234" s="19">
-        <v>4759</v>
+        <v>4544</v>
       </c>
       <c r="E1234" s="18">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="F1234" s="18">
-        <v>221</v>
+        <v>465</v>
       </c>
       <c r="G1234" s="19">
-        <v>4865</v>
+        <v>6409</v>
       </c>
       <c r="H1234" s="19">
-        <v>2908</v>
+        <v>4726</v>
       </c>
       <c r="I1234" s="19">
-        <v>20530</v>
+        <v>33453</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1235" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1235" s="19">
+        <v>4456</v>
+      </c>
+      <c r="C1235" s="19">
+        <v>26600</v>
+      </c>
+      <c r="D1235" s="19">
+        <v>5969</v>
+      </c>
+      <c r="E1235" s="18">
+        <v>137</v>
+      </c>
+      <c r="F1235" s="18">
+        <v>660</v>
+      </c>
+      <c r="G1235" s="19">
+        <v>4801</v>
+      </c>
+      <c r="H1235" s="19">
+        <v>2161</v>
+      </c>
+      <c r="I1235" s="19">
+        <v>29421</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
